--- a/Spreadsheets/Seattle Playoffs.xlsx
+++ b/Spreadsheets/Seattle Playoffs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="15">
   <si>
     <t xml:space="preserve">YEAR</t>
   </si>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">SONICS</t>
   </si>
   <si>
-    <t xml:space="preserve">HOCKEY</t>
+    <t xml:space="preserve">KRAKEN</t>
   </si>
   <si>
     <t xml:space="preserve">Teams?</t>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
   </si>
   <si>
     <t xml:space="preserve">LOL</t>
@@ -74,8 +71,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -156,7 +154,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -165,8 +163,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -177,14 +175,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -266,32 +268,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.46"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -313,7 +313,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -340,7 +340,7 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="2" t="n">
         <v>2022</v>
       </c>
       <c r="B2" s="3"/>
@@ -352,8 +352,13 @@
         <v>10</v>
       </c>
       <c r="H2" s="4"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="I2" s="5" t="n">
+        <f aca="false">COUNTIF(B2:H2, "Y")</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -372,25 +377,28 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="2" t="n">
         <v>2021</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <f aca="false">COUNTIF(B3:H3, "Y")</f>
+        <v>1</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -410,7 +418,7 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="2" t="n">
         <v>2020</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -419,10 +427,10 @@
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
         <v>10</v>
@@ -430,7 +438,7 @@
       <c r="H4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="5" t="n">
         <f aca="false">COUNTIF(B4:H4, "Y")</f>
         <v>2</v>
       </c>
@@ -447,7 +455,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>11</v>
@@ -459,7 +467,7 @@
       <c r="H5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="5" t="n">
         <f aca="false">COUNTIF(B5:H5, "Y")</f>
         <v>3</v>
       </c>
@@ -475,11 +483,9 @@
         <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
         <v>10</v>
@@ -487,7 +493,7 @@
       <c r="H6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="5" t="n">
         <f aca="false">COUNTIF(B6:H6, "Y")</f>
         <v>1</v>
       </c>
@@ -495,7 +501,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
         <v>2017</v>
       </c>
@@ -504,16 +510,17 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="H7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="5" t="n">
         <f aca="false">COUNTIF(B7:H7, "Y")</f>
         <v>1</v>
       </c>
@@ -521,7 +528,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
         <v>2016</v>
       </c>
@@ -532,18 +539,19 @@
         <v>11</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="H8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="5" t="n">
         <f aca="false">COUNTIF(B8:H8, "Y")</f>
         <v>3</v>
       </c>
@@ -551,7 +559,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
         <v>2015</v>
       </c>
@@ -562,22 +570,23 @@
         <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="H9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="5" t="n">
         <f aca="false">COUNTIF(B9:H9, "Y")</f>
         <v>2</v>
       </c>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
         <v>2014</v>
       </c>
@@ -588,22 +597,23 @@
         <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="H10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="5" t="n">
         <f aca="false">COUNTIF(B10:H10, "Y")</f>
         <v>2</v>
       </c>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
         <v>2013</v>
       </c>
@@ -614,16 +624,17 @@
         <v>11</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="H11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="5" t="n">
         <f aca="false">COUNTIF(B11:H11, "Y")</f>
         <v>2</v>
       </c>
@@ -631,7 +642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
         <v>2012</v>
       </c>
@@ -642,16 +653,17 @@
         <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="H12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="5" t="n">
         <f aca="false">COUNTIF(B12:H12, "Y")</f>
         <v>2</v>
       </c>
@@ -659,7 +671,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
         <v>2011</v>
       </c>
@@ -668,7 +680,7 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>11</v>
@@ -677,7 +689,10 @@
       <c r="G13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="H13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="5" t="n">
         <f aca="false">COUNTIF(B13:H13, "Y")</f>
         <v>2</v>
       </c>
@@ -685,7 +700,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
         <v>2010</v>
       </c>
@@ -696,7 +711,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>11</v>
@@ -705,7 +720,10 @@
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="5" t="n">
         <f aca="false">COUNTIF(B14:H14, "Y")</f>
         <v>3</v>
       </c>
@@ -713,7 +731,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
         <v>2009</v>
       </c>
@@ -722,16 +740,19 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="5" t="n">
         <f aca="false">COUNTIF(B15:H15, "Y")</f>
         <v>2</v>
       </c>
@@ -739,21 +760,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="n">
         <v>2008</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="I16" s="0" t="n">
+      <c r="H16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="5" t="n">
         <f aca="false">COUNTIF(B16:H16, "Y")</f>
         <v>0</v>
       </c>
@@ -761,23 +785,26 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="n">
         <v>2007</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="I17" s="0" t="n">
+      <c r="H17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="5" t="n">
         <f aca="false">COUNTIF(B17:H17, "Y")</f>
         <v>1</v>
       </c>
@@ -785,25 +812,28 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
         <v>2006</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="I18" s="0" t="n">
+      <c r="H18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="5" t="n">
         <f aca="false">COUNTIF(B18:H18, "Y")</f>
         <v>2</v>
       </c>
@@ -811,18 +841,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="n">
         <v>2005</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>11</v>
@@ -831,7 +861,10 @@
       <c r="G19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="H19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="5" t="n">
         <f aca="false">COUNTIF(B19:H19, "Y")</f>
         <v>3</v>
       </c>
@@ -839,25 +872,28 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="n">
         <v>2004</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="I20" s="0" t="n">
+      <c r="H20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="5" t="n">
         <f aca="false">COUNTIF(B20:H20, "Y")</f>
         <v>2</v>
       </c>
@@ -865,45 +901,51 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="n">
         <v>2003</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="I21" s="0" t="n">
+      <c r="H21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="5" t="n">
         <f aca="false">COUNTIF(B21:H21, "Y")</f>
         <v>1</v>
       </c>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="n">
         <v>2002</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="H22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="5" t="n">
         <f aca="false">COUNTIF(B22:H22, "Y")</f>
         <v>1</v>
       </c>
@@ -911,12 +953,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="n">
         <v>2001</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
@@ -927,18 +969,21 @@
         <v>11</v>
       </c>
       <c r="G23" s="3"/>
-      <c r="I23" s="0" t="n">
+      <c r="H23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="5" t="n">
         <f aca="false">COUNTIF(B23:H23, "Y")</f>
         <v>2</v>
       </c>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="n">
         <v>2000</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
@@ -949,18 +994,21 @@
       <c r="G24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="H24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="5" t="n">
         <f aca="false">COUNTIF(B24:H24, "Y")</f>
         <v>2</v>
       </c>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="n">
         <v>1999</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>11</v>
@@ -971,20 +1019,23 @@
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="I25" s="0" t="n">
+      <c r="H25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="5" t="n">
         <f aca="false">COUNTIF(B25:H25, "Y")</f>
         <v>2</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="n">
         <v>1998</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -995,7 +1046,10 @@
       <c r="G26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="H26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="5" t="n">
         <f aca="false">COUNTIF(B26:H26, "Y")</f>
         <v>2</v>
       </c>
@@ -1003,12 +1057,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="n">
         <v>1997</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
@@ -1019,7 +1073,10 @@
       <c r="G27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="H27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="5" t="n">
         <f aca="false">COUNTIF(B27:H27, "Y")</f>
         <v>2</v>
       </c>
@@ -1027,12 +1084,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="n">
         <v>1996</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1041,7 +1098,10 @@
       <c r="G28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="H28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="5" t="n">
         <f aca="false">COUNTIF(B28:H28, "Y")</f>
         <v>1</v>
       </c>
@@ -1049,12 +1109,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="n">
         <v>1995</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
@@ -1065,7 +1125,10 @@
       <c r="G29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="H29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="5" t="n">
         <f aca="false">COUNTIF(B29:H29, "Y")</f>
         <v>2</v>
       </c>
@@ -1073,12 +1136,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="n">
         <v>1994</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1087,7 +1150,10 @@
       <c r="G30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="H30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="5" t="n">
         <f aca="false">COUNTIF(B30:H30, "Y")</f>
         <v>1</v>
       </c>
@@ -1095,12 +1161,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="n">
         <v>1993</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1111,7 +1177,10 @@
       <c r="G31" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="H31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="5" t="n">
         <f aca="false">COUNTIF(B31:H31, "Y")</f>
         <v>2</v>
       </c>
@@ -1119,12 +1188,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="n">
         <v>1992</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1135,7 +1204,10 @@
       <c r="G32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I32" s="0" t="n">
+      <c r="H32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="5" t="n">
         <f aca="false">COUNTIF(B32:H32, "Y")</f>
         <v>2</v>
       </c>
@@ -1143,12 +1215,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="n">
         <v>1991</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1159,7 +1231,10 @@
       <c r="G33" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I33" s="0" t="n">
+      <c r="H33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="5" t="n">
         <f aca="false">COUNTIF(B33:H33, "Y")</f>
         <v>2</v>
       </c>
@@ -1167,19 +1242,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="n">
         <v>1990</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-      <c r="I34" s="0" t="n">
+      <c r="H34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="5" t="n">
         <f aca="false">COUNTIF(B34:H34, "Y")</f>
         <v>0</v>
       </c>
@@ -1187,12 +1265,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="n">
         <v>1989</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1201,7 +1279,10 @@
       <c r="G35" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I35" s="0" t="n">
+      <c r="H35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="5" t="n">
         <f aca="false">COUNTIF(B35:H35, "Y")</f>
         <v>1</v>
       </c>
@@ -1209,12 +1290,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="n">
         <v>1988</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>11</v>
@@ -1225,7 +1306,10 @@
       <c r="G36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I36" s="0" t="n">
+      <c r="H36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="5" t="n">
         <f aca="false">COUNTIF(B36:H36, "Y")</f>
         <v>2</v>
       </c>
@@ -1233,12 +1317,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="n">
         <v>1987</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>11</v>
@@ -1249,7 +1333,10 @@
       <c r="G37" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I37" s="0" t="n">
+      <c r="H37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="5" t="n">
         <f aca="false">COUNTIF(B37:H37, "Y")</f>
         <v>2</v>
       </c>
@@ -1257,12 +1344,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="n">
         <v>1986</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -1271,7 +1358,10 @@
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
-      <c r="I38" s="0" t="n">
+      <c r="H38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="5" t="n">
         <f aca="false">COUNTIF(B38:H38, "Y")</f>
         <v>1</v>
       </c>
@@ -1279,12 +1369,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="n">
         <v>1985</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -1295,13 +1385,2908 @@
         <v>11</v>
       </c>
       <c r="G39" s="3"/>
-      <c r="I39" s="0" t="n">
+      <c r="H39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="5" t="n">
         <f aca="false">COUNTIF(B39:H39, "Y")</f>
         <v>2</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I60" s="5"/>
+    </row>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I62" s="5"/>
+    </row>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I63" s="5"/>
+    </row>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I64" s="5"/>
+    </row>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I65" s="5"/>
+    </row>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I67" s="5"/>
+    </row>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I69" s="5"/>
+    </row>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I70" s="5"/>
+    </row>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I72" s="5"/>
+    </row>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I73" s="5"/>
+    </row>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I74" s="5"/>
+    </row>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I75" s="5"/>
+    </row>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I76" s="5"/>
+    </row>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I77" s="5"/>
+    </row>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I78" s="5"/>
+    </row>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I79" s="5"/>
+    </row>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I80" s="5"/>
+    </row>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I81" s="5"/>
+    </row>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I82" s="5"/>
+    </row>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I83" s="5"/>
+    </row>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I84" s="5"/>
+    </row>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I85" s="5"/>
+    </row>
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I86" s="5"/>
+    </row>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I87" s="5"/>
+    </row>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I88" s="5"/>
+    </row>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I89" s="5"/>
+    </row>
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I90" s="5"/>
+    </row>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I91" s="5"/>
+    </row>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I92" s="5"/>
+    </row>
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I93" s="5"/>
+    </row>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I94" s="5"/>
+    </row>
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I95" s="5"/>
+    </row>
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I96" s="5"/>
+    </row>
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I97" s="5"/>
+    </row>
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I98" s="5"/>
+    </row>
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I99" s="5"/>
+    </row>
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I100" s="5"/>
+    </row>
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I101" s="5"/>
+    </row>
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I102" s="5"/>
+    </row>
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I103" s="5"/>
+    </row>
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I104" s="5"/>
+    </row>
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I105" s="5"/>
+    </row>
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I106" s="5"/>
+    </row>
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I107" s="5"/>
+    </row>
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I108" s="5"/>
+    </row>
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I109" s="5"/>
+    </row>
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I110" s="5"/>
+    </row>
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I111" s="5"/>
+    </row>
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I112" s="5"/>
+    </row>
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I113" s="5"/>
+    </row>
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I114" s="5"/>
+    </row>
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I115" s="5"/>
+    </row>
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I116" s="5"/>
+    </row>
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I117" s="5"/>
+    </row>
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I118" s="5"/>
+    </row>
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I119" s="5"/>
+    </row>
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I120" s="5"/>
+    </row>
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I121" s="5"/>
+    </row>
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I122" s="5"/>
+    </row>
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I123" s="5"/>
+    </row>
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I124" s="5"/>
+    </row>
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I125" s="5"/>
+    </row>
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I126" s="5"/>
+    </row>
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I127" s="5"/>
+    </row>
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I128" s="5"/>
+    </row>
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I129" s="5"/>
+    </row>
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I130" s="5"/>
+    </row>
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I131" s="5"/>
+    </row>
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I132" s="5"/>
+    </row>
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I133" s="5"/>
+    </row>
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I134" s="5"/>
+    </row>
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I135" s="5"/>
+    </row>
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I136" s="5"/>
+    </row>
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I137" s="5"/>
+    </row>
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I138" s="5"/>
+    </row>
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I139" s="5"/>
+    </row>
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I140" s="5"/>
+    </row>
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I141" s="5"/>
+    </row>
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I142" s="5"/>
+    </row>
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I143" s="5"/>
+    </row>
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I144" s="5"/>
+    </row>
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I145" s="5"/>
+    </row>
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I146" s="5"/>
+    </row>
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I147" s="5"/>
+    </row>
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I148" s="5"/>
+    </row>
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I149" s="5"/>
+    </row>
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I150" s="5"/>
+    </row>
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I151" s="5"/>
+    </row>
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I152" s="5"/>
+    </row>
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I153" s="5"/>
+    </row>
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I154" s="5"/>
+    </row>
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I155" s="5"/>
+    </row>
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I156" s="5"/>
+    </row>
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I157" s="5"/>
+    </row>
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I158" s="5"/>
+    </row>
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I159" s="5"/>
+    </row>
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I160" s="5"/>
+    </row>
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I161" s="5"/>
+    </row>
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I162" s="5"/>
+    </row>
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I163" s="5"/>
+    </row>
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I164" s="5"/>
+    </row>
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I165" s="5"/>
+    </row>
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I166" s="5"/>
+    </row>
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I167" s="5"/>
+    </row>
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I168" s="5"/>
+    </row>
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I169" s="5"/>
+    </row>
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I170" s="5"/>
+    </row>
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I171" s="5"/>
+    </row>
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I172" s="5"/>
+    </row>
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I173" s="5"/>
+    </row>
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I174" s="5"/>
+    </row>
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I175" s="5"/>
+    </row>
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I176" s="5"/>
+    </row>
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I177" s="5"/>
+    </row>
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I178" s="5"/>
+    </row>
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I179" s="5"/>
+    </row>
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I180" s="5"/>
+    </row>
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I181" s="5"/>
+    </row>
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I182" s="5"/>
+    </row>
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I183" s="5"/>
+    </row>
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I184" s="5"/>
+    </row>
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I185" s="5"/>
+    </row>
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I186" s="5"/>
+    </row>
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I187" s="5"/>
+    </row>
+    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I188" s="5"/>
+    </row>
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I189" s="5"/>
+    </row>
+    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I190" s="5"/>
+    </row>
+    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I191" s="5"/>
+    </row>
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I192" s="5"/>
+    </row>
+    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I193" s="5"/>
+    </row>
+    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I194" s="5"/>
+    </row>
+    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I195" s="5"/>
+    </row>
+    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I196" s="5"/>
+    </row>
+    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I197" s="5"/>
+    </row>
+    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I198" s="5"/>
+    </row>
+    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I199" s="5"/>
+    </row>
+    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I200" s="5"/>
+    </row>
+    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I201" s="5"/>
+    </row>
+    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I202" s="5"/>
+    </row>
+    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I203" s="5"/>
+    </row>
+    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I204" s="5"/>
+    </row>
+    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I205" s="5"/>
+    </row>
+    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I206" s="5"/>
+    </row>
+    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I207" s="5"/>
+    </row>
+    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I208" s="5"/>
+    </row>
+    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I209" s="5"/>
+    </row>
+    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I210" s="5"/>
+    </row>
+    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I211" s="5"/>
+    </row>
+    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I212" s="5"/>
+    </row>
+    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I213" s="5"/>
+    </row>
+    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I214" s="5"/>
+    </row>
+    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I215" s="5"/>
+    </row>
+    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I216" s="5"/>
+    </row>
+    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I217" s="5"/>
+    </row>
+    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I218" s="5"/>
+    </row>
+    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I219" s="5"/>
+    </row>
+    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I220" s="5"/>
+    </row>
+    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I221" s="5"/>
+    </row>
+    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I222" s="5"/>
+    </row>
+    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I223" s="5"/>
+    </row>
+    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I224" s="5"/>
+    </row>
+    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I225" s="5"/>
+    </row>
+    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I226" s="5"/>
+    </row>
+    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I227" s="5"/>
+    </row>
+    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I228" s="5"/>
+    </row>
+    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I229" s="5"/>
+    </row>
+    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I230" s="5"/>
+    </row>
+    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I231" s="5"/>
+    </row>
+    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I232" s="5"/>
+    </row>
+    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I233" s="5"/>
+    </row>
+    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I234" s="5"/>
+    </row>
+    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I235" s="5"/>
+    </row>
+    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I236" s="5"/>
+    </row>
+    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I237" s="5"/>
+    </row>
+    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I238" s="5"/>
+    </row>
+    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I239" s="5"/>
+    </row>
+    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I240" s="5"/>
+    </row>
+    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I241" s="5"/>
+    </row>
+    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I242" s="5"/>
+    </row>
+    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I243" s="5"/>
+    </row>
+    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I244" s="5"/>
+    </row>
+    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I245" s="5"/>
+    </row>
+    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I246" s="5"/>
+    </row>
+    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I247" s="5"/>
+    </row>
+    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I248" s="5"/>
+    </row>
+    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I249" s="5"/>
+    </row>
+    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I250" s="5"/>
+    </row>
+    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I251" s="5"/>
+    </row>
+    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I252" s="5"/>
+    </row>
+    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I253" s="5"/>
+    </row>
+    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I254" s="5"/>
+    </row>
+    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I255" s="5"/>
+    </row>
+    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I256" s="5"/>
+    </row>
+    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I257" s="5"/>
+    </row>
+    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I258" s="5"/>
+    </row>
+    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I259" s="5"/>
+    </row>
+    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I260" s="5"/>
+    </row>
+    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I261" s="5"/>
+    </row>
+    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I262" s="5"/>
+    </row>
+    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I263" s="5"/>
+    </row>
+    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I264" s="5"/>
+    </row>
+    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I265" s="5"/>
+    </row>
+    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I266" s="5"/>
+    </row>
+    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I267" s="5"/>
+    </row>
+    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I268" s="5"/>
+    </row>
+    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I269" s="5"/>
+    </row>
+    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I270" s="5"/>
+    </row>
+    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I271" s="5"/>
+    </row>
+    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I272" s="5"/>
+    </row>
+    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I273" s="5"/>
+    </row>
+    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I274" s="5"/>
+    </row>
+    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I275" s="5"/>
+    </row>
+    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I276" s="5"/>
+    </row>
+    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I277" s="5"/>
+    </row>
+    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I278" s="5"/>
+    </row>
+    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I279" s="5"/>
+    </row>
+    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I280" s="5"/>
+    </row>
+    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I281" s="5"/>
+    </row>
+    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I282" s="5"/>
+    </row>
+    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I283" s="5"/>
+    </row>
+    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I284" s="5"/>
+    </row>
+    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I285" s="5"/>
+    </row>
+    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I286" s="5"/>
+    </row>
+    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I287" s="5"/>
+    </row>
+    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I288" s="5"/>
+    </row>
+    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I289" s="5"/>
+    </row>
+    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I290" s="5"/>
+    </row>
+    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I291" s="5"/>
+    </row>
+    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I292" s="5"/>
+    </row>
+    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I293" s="5"/>
+    </row>
+    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I294" s="5"/>
+    </row>
+    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I295" s="5"/>
+    </row>
+    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I296" s="5"/>
+    </row>
+    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I297" s="5"/>
+    </row>
+    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I298" s="5"/>
+    </row>
+    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I299" s="5"/>
+    </row>
+    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I300" s="5"/>
+    </row>
+    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I301" s="5"/>
+    </row>
+    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I302" s="5"/>
+    </row>
+    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I303" s="5"/>
+    </row>
+    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I304" s="5"/>
+    </row>
+    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I305" s="5"/>
+    </row>
+    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I306" s="5"/>
+    </row>
+    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I307" s="5"/>
+    </row>
+    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I308" s="5"/>
+    </row>
+    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I309" s="5"/>
+    </row>
+    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I310" s="5"/>
+    </row>
+    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I311" s="5"/>
+    </row>
+    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I312" s="5"/>
+    </row>
+    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I313" s="5"/>
+    </row>
+    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I314" s="5"/>
+    </row>
+    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I315" s="5"/>
+    </row>
+    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I316" s="5"/>
+    </row>
+    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I317" s="5"/>
+    </row>
+    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I318" s="5"/>
+    </row>
+    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I319" s="5"/>
+    </row>
+    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I320" s="5"/>
+    </row>
+    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I321" s="5"/>
+    </row>
+    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I322" s="5"/>
+    </row>
+    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I323" s="5"/>
+    </row>
+    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I324" s="5"/>
+    </row>
+    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I325" s="5"/>
+    </row>
+    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I326" s="5"/>
+    </row>
+    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I327" s="5"/>
+    </row>
+    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I328" s="5"/>
+    </row>
+    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I329" s="5"/>
+    </row>
+    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I330" s="5"/>
+    </row>
+    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I331" s="5"/>
+    </row>
+    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I332" s="5"/>
+    </row>
+    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I333" s="5"/>
+    </row>
+    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I334" s="5"/>
+    </row>
+    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I335" s="5"/>
+    </row>
+    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I336" s="5"/>
+    </row>
+    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I337" s="5"/>
+    </row>
+    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I338" s="5"/>
+    </row>
+    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I339" s="5"/>
+    </row>
+    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I340" s="5"/>
+    </row>
+    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I341" s="5"/>
+    </row>
+    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I342" s="5"/>
+    </row>
+    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I343" s="5"/>
+    </row>
+    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I344" s="5"/>
+    </row>
+    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I345" s="5"/>
+    </row>
+    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I346" s="5"/>
+    </row>
+    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I347" s="5"/>
+    </row>
+    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I348" s="5"/>
+    </row>
+    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I349" s="5"/>
+    </row>
+    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I350" s="5"/>
+    </row>
+    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I351" s="5"/>
+    </row>
+    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I352" s="5"/>
+    </row>
+    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I353" s="5"/>
+    </row>
+    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I354" s="5"/>
+    </row>
+    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I355" s="5"/>
+    </row>
+    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I356" s="5"/>
+    </row>
+    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I357" s="5"/>
+    </row>
+    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I358" s="5"/>
+    </row>
+    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I359" s="5"/>
+    </row>
+    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I360" s="5"/>
+    </row>
+    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I361" s="5"/>
+    </row>
+    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I362" s="5"/>
+    </row>
+    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I363" s="5"/>
+    </row>
+    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I364" s="5"/>
+    </row>
+    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I365" s="5"/>
+    </row>
+    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I366" s="5"/>
+    </row>
+    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I367" s="5"/>
+    </row>
+    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I368" s="5"/>
+    </row>
+    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I369" s="5"/>
+    </row>
+    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I370" s="5"/>
+    </row>
+    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I371" s="5"/>
+    </row>
+    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I372" s="5"/>
+    </row>
+    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I373" s="5"/>
+    </row>
+    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I374" s="5"/>
+    </row>
+    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I375" s="5"/>
+    </row>
+    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I376" s="5"/>
+    </row>
+    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I377" s="5"/>
+    </row>
+    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I378" s="5"/>
+    </row>
+    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I379" s="5"/>
+    </row>
+    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I380" s="5"/>
+    </row>
+    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I381" s="5"/>
+    </row>
+    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I382" s="5"/>
+    </row>
+    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I383" s="5"/>
+    </row>
+    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I384" s="5"/>
+    </row>
+    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I385" s="5"/>
+    </row>
+    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I386" s="5"/>
+    </row>
+    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I387" s="5"/>
+    </row>
+    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I388" s="5"/>
+    </row>
+    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I389" s="5"/>
+    </row>
+    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I390" s="5"/>
+    </row>
+    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I391" s="5"/>
+    </row>
+    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I392" s="5"/>
+    </row>
+    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I393" s="5"/>
+    </row>
+    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I394" s="5"/>
+    </row>
+    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I395" s="5"/>
+    </row>
+    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I396" s="5"/>
+    </row>
+    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I397" s="5"/>
+    </row>
+    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I398" s="5"/>
+    </row>
+    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I399" s="5"/>
+    </row>
+    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I400" s="5"/>
+    </row>
+    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I401" s="5"/>
+    </row>
+    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I402" s="5"/>
+    </row>
+    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I403" s="5"/>
+    </row>
+    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I404" s="5"/>
+    </row>
+    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I405" s="5"/>
+    </row>
+    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I406" s="5"/>
+    </row>
+    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I407" s="5"/>
+    </row>
+    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I408" s="5"/>
+    </row>
+    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I409" s="5"/>
+    </row>
+    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I410" s="5"/>
+    </row>
+    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I411" s="5"/>
+    </row>
+    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I412" s="5"/>
+    </row>
+    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I413" s="5"/>
+    </row>
+    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I414" s="5"/>
+    </row>
+    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I415" s="5"/>
+    </row>
+    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I416" s="5"/>
+    </row>
+    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I417" s="5"/>
+    </row>
+    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I418" s="5"/>
+    </row>
+    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I419" s="5"/>
+    </row>
+    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I420" s="5"/>
+    </row>
+    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I421" s="5"/>
+    </row>
+    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I422" s="5"/>
+    </row>
+    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I423" s="5"/>
+    </row>
+    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I424" s="5"/>
+    </row>
+    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I425" s="5"/>
+    </row>
+    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I426" s="5"/>
+    </row>
+    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I427" s="5"/>
+    </row>
+    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I428" s="5"/>
+    </row>
+    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I429" s="5"/>
+    </row>
+    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I430" s="5"/>
+    </row>
+    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I431" s="5"/>
+    </row>
+    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I432" s="5"/>
+    </row>
+    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I433" s="5"/>
+    </row>
+    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I434" s="5"/>
+    </row>
+    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I435" s="5"/>
+    </row>
+    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I436" s="5"/>
+    </row>
+    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I437" s="5"/>
+    </row>
+    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I438" s="5"/>
+    </row>
+    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I439" s="5"/>
+    </row>
+    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I440" s="5"/>
+    </row>
+    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I441" s="5"/>
+    </row>
+    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I442" s="5"/>
+    </row>
+    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I443" s="5"/>
+    </row>
+    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I444" s="5"/>
+    </row>
+    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I445" s="5"/>
+    </row>
+    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I446" s="5"/>
+    </row>
+    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I447" s="5"/>
+    </row>
+    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I448" s="5"/>
+    </row>
+    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I449" s="5"/>
+    </row>
+    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I450" s="5"/>
+    </row>
+    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I451" s="5"/>
+    </row>
+    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I452" s="5"/>
+    </row>
+    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I453" s="5"/>
+    </row>
+    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I454" s="5"/>
+    </row>
+    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I455" s="5"/>
+    </row>
+    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I456" s="5"/>
+    </row>
+    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I457" s="5"/>
+    </row>
+    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I458" s="5"/>
+    </row>
+    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I459" s="5"/>
+    </row>
+    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I460" s="5"/>
+    </row>
+    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I461" s="5"/>
+    </row>
+    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I462" s="5"/>
+    </row>
+    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I463" s="5"/>
+    </row>
+    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I464" s="5"/>
+    </row>
+    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I465" s="5"/>
+    </row>
+    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I466" s="5"/>
+    </row>
+    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I467" s="5"/>
+    </row>
+    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I468" s="5"/>
+    </row>
+    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I469" s="5"/>
+    </row>
+    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I470" s="5"/>
+    </row>
+    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I471" s="5"/>
+    </row>
+    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I472" s="5"/>
+    </row>
+    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I473" s="5"/>
+    </row>
+    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I474" s="5"/>
+    </row>
+    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I475" s="5"/>
+    </row>
+    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I476" s="5"/>
+    </row>
+    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I477" s="5"/>
+    </row>
+    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I478" s="5"/>
+    </row>
+    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I479" s="5"/>
+    </row>
+    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I480" s="5"/>
+    </row>
+    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I481" s="5"/>
+    </row>
+    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I482" s="5"/>
+    </row>
+    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I483" s="5"/>
+    </row>
+    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I484" s="5"/>
+    </row>
+    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I485" s="5"/>
+    </row>
+    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I486" s="5"/>
+    </row>
+    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I487" s="5"/>
+    </row>
+    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I488" s="5"/>
+    </row>
+    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I489" s="5"/>
+    </row>
+    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I490" s="5"/>
+    </row>
+    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I491" s="5"/>
+    </row>
+    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I492" s="5"/>
+    </row>
+    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I493" s="5"/>
+    </row>
+    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I494" s="5"/>
+    </row>
+    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I495" s="5"/>
+    </row>
+    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I496" s="5"/>
+    </row>
+    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I497" s="5"/>
+    </row>
+    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I498" s="5"/>
+    </row>
+    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I499" s="5"/>
+    </row>
+    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I500" s="5"/>
+    </row>
+    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I501" s="5"/>
+    </row>
+    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I502" s="5"/>
+    </row>
+    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I503" s="5"/>
+    </row>
+    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I504" s="5"/>
+    </row>
+    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I505" s="5"/>
+    </row>
+    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I506" s="5"/>
+    </row>
+    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I507" s="5"/>
+    </row>
+    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I508" s="5"/>
+    </row>
+    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I509" s="5"/>
+    </row>
+    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I510" s="5"/>
+    </row>
+    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I511" s="5"/>
+    </row>
+    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I512" s="5"/>
+    </row>
+    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I513" s="5"/>
+    </row>
+    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I514" s="5"/>
+    </row>
+    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I515" s="5"/>
+    </row>
+    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I516" s="5"/>
+    </row>
+    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I517" s="5"/>
+    </row>
+    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I518" s="5"/>
+    </row>
+    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I519" s="5"/>
+    </row>
+    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I520" s="5"/>
+    </row>
+    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I521" s="5"/>
+    </row>
+    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I522" s="5"/>
+    </row>
+    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I523" s="5"/>
+    </row>
+    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I524" s="5"/>
+    </row>
+    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I525" s="5"/>
+    </row>
+    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I526" s="5"/>
+    </row>
+    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I527" s="5"/>
+    </row>
+    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I528" s="5"/>
+    </row>
+    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I529" s="5"/>
+    </row>
+    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I530" s="5"/>
+    </row>
+    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I531" s="5"/>
+    </row>
+    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I532" s="5"/>
+    </row>
+    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I533" s="5"/>
+    </row>
+    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I534" s="5"/>
+    </row>
+    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I535" s="5"/>
+    </row>
+    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I536" s="5"/>
+    </row>
+    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I537" s="5"/>
+    </row>
+    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I538" s="5"/>
+    </row>
+    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I539" s="5"/>
+    </row>
+    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I540" s="5"/>
+    </row>
+    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I541" s="5"/>
+    </row>
+    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I542" s="5"/>
+    </row>
+    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I543" s="5"/>
+    </row>
+    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I544" s="5"/>
+    </row>
+    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I545" s="5"/>
+    </row>
+    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I546" s="5"/>
+    </row>
+    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I547" s="5"/>
+    </row>
+    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I548" s="5"/>
+    </row>
+    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I549" s="5"/>
+    </row>
+    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I550" s="5"/>
+    </row>
+    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I551" s="5"/>
+    </row>
+    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I552" s="5"/>
+    </row>
+    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I553" s="5"/>
+    </row>
+    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I554" s="5"/>
+    </row>
+    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I555" s="5"/>
+    </row>
+    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I556" s="5"/>
+    </row>
+    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I557" s="5"/>
+    </row>
+    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I558" s="5"/>
+    </row>
+    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I559" s="5"/>
+    </row>
+    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I560" s="5"/>
+    </row>
+    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I561" s="5"/>
+    </row>
+    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I562" s="5"/>
+    </row>
+    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I563" s="5"/>
+    </row>
+    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I564" s="5"/>
+    </row>
+    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I565" s="5"/>
+    </row>
+    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I566" s="5"/>
+    </row>
+    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I567" s="5"/>
+    </row>
+    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I568" s="5"/>
+    </row>
+    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I569" s="5"/>
+    </row>
+    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I570" s="5"/>
+    </row>
+    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I571" s="5"/>
+    </row>
+    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I572" s="5"/>
+    </row>
+    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I573" s="5"/>
+    </row>
+    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I574" s="5"/>
+    </row>
+    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I575" s="5"/>
+    </row>
+    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I576" s="5"/>
+    </row>
+    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I577" s="5"/>
+    </row>
+    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I578" s="5"/>
+    </row>
+    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I579" s="5"/>
+    </row>
+    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I580" s="5"/>
+    </row>
+    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I581" s="5"/>
+    </row>
+    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I582" s="5"/>
+    </row>
+    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I583" s="5"/>
+    </row>
+    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I584" s="5"/>
+    </row>
+    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I585" s="5"/>
+    </row>
+    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I586" s="5"/>
+    </row>
+    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I587" s="5"/>
+    </row>
+    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I588" s="5"/>
+    </row>
+    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I589" s="5"/>
+    </row>
+    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I590" s="5"/>
+    </row>
+    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I591" s="5"/>
+    </row>
+    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I592" s="5"/>
+    </row>
+    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I593" s="5"/>
+    </row>
+    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I594" s="5"/>
+    </row>
+    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I595" s="5"/>
+    </row>
+    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I596" s="5"/>
+    </row>
+    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I597" s="5"/>
+    </row>
+    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I598" s="5"/>
+    </row>
+    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I599" s="5"/>
+    </row>
+    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I600" s="5"/>
+    </row>
+    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I601" s="5"/>
+    </row>
+    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I602" s="5"/>
+    </row>
+    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I603" s="5"/>
+    </row>
+    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I604" s="5"/>
+    </row>
+    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I605" s="5"/>
+    </row>
+    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I606" s="5"/>
+    </row>
+    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I607" s="5"/>
+    </row>
+    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I608" s="5"/>
+    </row>
+    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I609" s="5"/>
+    </row>
+    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I610" s="5"/>
+    </row>
+    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I611" s="5"/>
+    </row>
+    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I612" s="5"/>
+    </row>
+    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I613" s="5"/>
+    </row>
+    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I614" s="5"/>
+    </row>
+    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I615" s="5"/>
+    </row>
+    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I616" s="5"/>
+    </row>
+    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I617" s="5"/>
+    </row>
+    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I618" s="5"/>
+    </row>
+    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I619" s="5"/>
+    </row>
+    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I620" s="5"/>
+    </row>
+    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I621" s="5"/>
+    </row>
+    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I622" s="5"/>
+    </row>
+    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I623" s="5"/>
+    </row>
+    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I624" s="5"/>
+    </row>
+    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I625" s="5"/>
+    </row>
+    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I626" s="5"/>
+    </row>
+    <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I627" s="5"/>
+    </row>
+    <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I628" s="5"/>
+    </row>
+    <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I629" s="5"/>
+    </row>
+    <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I630" s="5"/>
+    </row>
+    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I631" s="5"/>
+    </row>
+    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I632" s="5"/>
+    </row>
+    <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I633" s="5"/>
+    </row>
+    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I634" s="5"/>
+    </row>
+    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I635" s="5"/>
+    </row>
+    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I636" s="5"/>
+    </row>
+    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I637" s="5"/>
+    </row>
+    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I638" s="5"/>
+    </row>
+    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I639" s="5"/>
+    </row>
+    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I640" s="5"/>
+    </row>
+    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I641" s="5"/>
+    </row>
+    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I642" s="5"/>
+    </row>
+    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I643" s="5"/>
+    </row>
+    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I644" s="5"/>
+    </row>
+    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I645" s="5"/>
+    </row>
+    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I646" s="5"/>
+    </row>
+    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I647" s="5"/>
+    </row>
+    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I648" s="5"/>
+    </row>
+    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I649" s="5"/>
+    </row>
+    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I650" s="5"/>
+    </row>
+    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I651" s="5"/>
+    </row>
+    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I652" s="5"/>
+    </row>
+    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I653" s="5"/>
+    </row>
+    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I654" s="5"/>
+    </row>
+    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I655" s="5"/>
+    </row>
+    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I656" s="5"/>
+    </row>
+    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I657" s="5"/>
+    </row>
+    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I658" s="5"/>
+    </row>
+    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I659" s="5"/>
+    </row>
+    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I660" s="5"/>
+    </row>
+    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I661" s="5"/>
+    </row>
+    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I662" s="5"/>
+    </row>
+    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I663" s="5"/>
+    </row>
+    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I664" s="5"/>
+    </row>
+    <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I665" s="5"/>
+    </row>
+    <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I666" s="5"/>
+    </row>
+    <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I667" s="5"/>
+    </row>
+    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I668" s="5"/>
+    </row>
+    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I669" s="5"/>
+    </row>
+    <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I670" s="5"/>
+    </row>
+    <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I671" s="5"/>
+    </row>
+    <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I672" s="5"/>
+    </row>
+    <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I673" s="5"/>
+    </row>
+    <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I674" s="5"/>
+    </row>
+    <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I675" s="5"/>
+    </row>
+    <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I676" s="5"/>
+    </row>
+    <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I677" s="5"/>
+    </row>
+    <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I678" s="5"/>
+    </row>
+    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I679" s="5"/>
+    </row>
+    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I680" s="5"/>
+    </row>
+    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I681" s="5"/>
+    </row>
+    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I682" s="5"/>
+    </row>
+    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I683" s="5"/>
+    </row>
+    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I684" s="5"/>
+    </row>
+    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I685" s="5"/>
+    </row>
+    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I686" s="5"/>
+    </row>
+    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I687" s="5"/>
+    </row>
+    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I688" s="5"/>
+    </row>
+    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I689" s="5"/>
+    </row>
+    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I690" s="5"/>
+    </row>
+    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I691" s="5"/>
+    </row>
+    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I692" s="5"/>
+    </row>
+    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I693" s="5"/>
+    </row>
+    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I694" s="5"/>
+    </row>
+    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I695" s="5"/>
+    </row>
+    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I696" s="5"/>
+    </row>
+    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I697" s="5"/>
+    </row>
+    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I698" s="5"/>
+    </row>
+    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I699" s="5"/>
+    </row>
+    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I700" s="5"/>
+    </row>
+    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I701" s="5"/>
+    </row>
+    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I702" s="5"/>
+    </row>
+    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I703" s="5"/>
+    </row>
+    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I704" s="5"/>
+    </row>
+    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I705" s="5"/>
+    </row>
+    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I706" s="5"/>
+    </row>
+    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I707" s="5"/>
+    </row>
+    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I708" s="5"/>
+    </row>
+    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I709" s="5"/>
+    </row>
+    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I710" s="5"/>
+    </row>
+    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I711" s="5"/>
+    </row>
+    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I712" s="5"/>
+    </row>
+    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I713" s="5"/>
+    </row>
+    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I714" s="5"/>
+    </row>
+    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I715" s="5"/>
+    </row>
+    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I716" s="5"/>
+    </row>
+    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I717" s="5"/>
+    </row>
+    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I718" s="5"/>
+    </row>
+    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I719" s="5"/>
+    </row>
+    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I720" s="5"/>
+    </row>
+    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I721" s="5"/>
+    </row>
+    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I722" s="5"/>
+    </row>
+    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I723" s="5"/>
+    </row>
+    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I724" s="5"/>
+    </row>
+    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I725" s="5"/>
+    </row>
+    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I726" s="5"/>
+    </row>
+    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I727" s="5"/>
+    </row>
+    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I728" s="5"/>
+    </row>
+    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I729" s="5"/>
+    </row>
+    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I730" s="5"/>
+    </row>
+    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I731" s="5"/>
+    </row>
+    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I732" s="5"/>
+    </row>
+    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I733" s="5"/>
+    </row>
+    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I734" s="5"/>
+    </row>
+    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I735" s="5"/>
+    </row>
+    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I736" s="5"/>
+    </row>
+    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I737" s="5"/>
+    </row>
+    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I738" s="5"/>
+    </row>
+    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I739" s="5"/>
+    </row>
+    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I740" s="5"/>
+    </row>
+    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I741" s="5"/>
+    </row>
+    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I742" s="5"/>
+    </row>
+    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I743" s="5"/>
+    </row>
+    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I744" s="5"/>
+    </row>
+    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I745" s="5"/>
+    </row>
+    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I746" s="5"/>
+    </row>
+    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I747" s="5"/>
+    </row>
+    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I748" s="5"/>
+    </row>
+    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I749" s="5"/>
+    </row>
+    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I750" s="5"/>
+    </row>
+    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I751" s="5"/>
+    </row>
+    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I752" s="5"/>
+    </row>
+    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I753" s="5"/>
+    </row>
+    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I754" s="5"/>
+    </row>
+    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I755" s="5"/>
+    </row>
+    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I756" s="5"/>
+    </row>
+    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I757" s="5"/>
+    </row>
+    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I758" s="5"/>
+    </row>
+    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I759" s="5"/>
+    </row>
+    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I760" s="5"/>
+    </row>
+    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I761" s="5"/>
+    </row>
+    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I762" s="5"/>
+    </row>
+    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I763" s="5"/>
+    </row>
+    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I764" s="5"/>
+    </row>
+    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I765" s="5"/>
+    </row>
+    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I766" s="5"/>
+    </row>
+    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I767" s="5"/>
+    </row>
+    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I768" s="5"/>
+    </row>
+    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I769" s="5"/>
+    </row>
+    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I770" s="5"/>
+    </row>
+    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I771" s="5"/>
+    </row>
+    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I772" s="5"/>
+    </row>
+    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I773" s="5"/>
+    </row>
+    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I774" s="5"/>
+    </row>
+    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I775" s="5"/>
+    </row>
+    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I776" s="5"/>
+    </row>
+    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I777" s="5"/>
+    </row>
+    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I778" s="5"/>
+    </row>
+    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I779" s="5"/>
+    </row>
+    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I780" s="5"/>
+    </row>
+    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I781" s="5"/>
+    </row>
+    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I782" s="5"/>
+    </row>
+    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I783" s="5"/>
+    </row>
+    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I784" s="5"/>
+    </row>
+    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I785" s="5"/>
+    </row>
+    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I786" s="5"/>
+    </row>
+    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I787" s="5"/>
+    </row>
+    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I788" s="5"/>
+    </row>
+    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I789" s="5"/>
+    </row>
+    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I790" s="5"/>
+    </row>
+    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I791" s="5"/>
+    </row>
+    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I792" s="5"/>
+    </row>
+    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I793" s="5"/>
+    </row>
+    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I794" s="5"/>
+    </row>
+    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I795" s="5"/>
+    </row>
+    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I796" s="5"/>
+    </row>
+    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I797" s="5"/>
+    </row>
+    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I798" s="5"/>
+    </row>
+    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I799" s="5"/>
+    </row>
+    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I800" s="5"/>
+    </row>
+    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I801" s="5"/>
+    </row>
+    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I802" s="5"/>
+    </row>
+    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I803" s="5"/>
+    </row>
+    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I804" s="5"/>
+    </row>
+    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I805" s="5"/>
+    </row>
+    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I806" s="5"/>
+    </row>
+    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I807" s="5"/>
+    </row>
+    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I808" s="5"/>
+    </row>
+    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I809" s="5"/>
+    </row>
+    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I810" s="5"/>
+    </row>
+    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I811" s="5"/>
+    </row>
+    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I812" s="5"/>
+    </row>
+    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I813" s="5"/>
+    </row>
+    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I814" s="5"/>
+    </row>
+    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I815" s="5"/>
+    </row>
+    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I816" s="5"/>
+    </row>
+    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I817" s="5"/>
+    </row>
+    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I818" s="5"/>
+    </row>
+    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I819" s="5"/>
+    </row>
+    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I820" s="5"/>
+    </row>
+    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I821" s="5"/>
+    </row>
+    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I822" s="5"/>
+    </row>
+    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I823" s="5"/>
+    </row>
+    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I824" s="5"/>
+    </row>
+    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I825" s="5"/>
+    </row>
+    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I826" s="5"/>
+    </row>
+    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I827" s="5"/>
+    </row>
+    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I828" s="5"/>
+    </row>
+    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I829" s="5"/>
+    </row>
+    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I830" s="5"/>
+    </row>
+    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I831" s="5"/>
+    </row>
+    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I832" s="5"/>
+    </row>
+    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I833" s="5"/>
+    </row>
+    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I834" s="5"/>
+    </row>
+    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I835" s="5"/>
+    </row>
+    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I836" s="5"/>
+    </row>
+    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I837" s="5"/>
+    </row>
+    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I838" s="5"/>
+    </row>
+    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I839" s="5"/>
+    </row>
+    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I840" s="5"/>
+    </row>
+    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I841" s="5"/>
+    </row>
+    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I842" s="5"/>
+    </row>
+    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I843" s="5"/>
+    </row>
+    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I844" s="5"/>
+    </row>
+    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I845" s="5"/>
+    </row>
+    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I846" s="5"/>
+    </row>
+    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I847" s="5"/>
+    </row>
+    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I848" s="5"/>
+    </row>
+    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I849" s="5"/>
+    </row>
+    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I850" s="5"/>
+    </row>
+    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I851" s="5"/>
+    </row>
+    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I852" s="5"/>
+    </row>
+    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I853" s="5"/>
+    </row>
+    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I854" s="5"/>
+    </row>
+    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I855" s="5"/>
+    </row>
+    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I856" s="5"/>
+    </row>
+    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I857" s="5"/>
+    </row>
+    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I858" s="5"/>
+    </row>
+    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I859" s="5"/>
+    </row>
+    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I860" s="5"/>
+    </row>
+    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I861" s="5"/>
+    </row>
+    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I862" s="5"/>
+    </row>
+    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I863" s="5"/>
+    </row>
+    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I864" s="5"/>
+    </row>
+    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I865" s="5"/>
+    </row>
+    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I866" s="5"/>
+    </row>
+    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I867" s="5"/>
+    </row>
+    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I868" s="5"/>
+    </row>
+    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I869" s="5"/>
+    </row>
+    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I870" s="5"/>
+    </row>
+    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I871" s="5"/>
+    </row>
+    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I872" s="5"/>
+    </row>
+    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I873" s="5"/>
+    </row>
+    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I874" s="5"/>
+    </row>
+    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I875" s="5"/>
+    </row>
+    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I876" s="5"/>
+    </row>
+    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I877" s="5"/>
+    </row>
+    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I878" s="5"/>
+    </row>
+    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I879" s="5"/>
+    </row>
+    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I880" s="5"/>
+    </row>
+    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I881" s="5"/>
+    </row>
+    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I882" s="5"/>
+    </row>
+    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I883" s="5"/>
+    </row>
+    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I884" s="5"/>
+    </row>
+    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I885" s="5"/>
+    </row>
+    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I886" s="5"/>
+    </row>
+    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I887" s="5"/>
+    </row>
+    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I888" s="5"/>
+    </row>
+    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I889" s="5"/>
+    </row>
+    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I890" s="5"/>
+    </row>
+    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I891" s="5"/>
+    </row>
+    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I892" s="5"/>
+    </row>
+    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I893" s="5"/>
+    </row>
+    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I894" s="5"/>
+    </row>
+    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I895" s="5"/>
+    </row>
+    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I896" s="5"/>
+    </row>
+    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I897" s="5"/>
+    </row>
+    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I898" s="5"/>
+    </row>
+    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I899" s="5"/>
+    </row>
+    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I900" s="5"/>
+    </row>
+    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I901" s="5"/>
+    </row>
+    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I902" s="5"/>
+    </row>
+    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I903" s="5"/>
+    </row>
+    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I904" s="5"/>
+    </row>
+    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I905" s="5"/>
+    </row>
+    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I906" s="5"/>
+    </row>
+    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I907" s="5"/>
+    </row>
+    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I908" s="5"/>
+    </row>
+    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I909" s="5"/>
+    </row>
+    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I910" s="5"/>
+    </row>
+    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I911" s="5"/>
+    </row>
+    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I912" s="5"/>
+    </row>
+    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I913" s="5"/>
+    </row>
+    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I914" s="5"/>
+    </row>
+    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I915" s="5"/>
+    </row>
+    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I916" s="5"/>
+    </row>
+    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I917" s="5"/>
+    </row>
+    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I918" s="5"/>
+    </row>
+    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I919" s="5"/>
+    </row>
+    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I920" s="5"/>
+    </row>
+    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I921" s="5"/>
+    </row>
+    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I922" s="5"/>
+    </row>
+    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I923" s="5"/>
+    </row>
+    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I924" s="5"/>
+    </row>
+    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I925" s="5"/>
+    </row>
+    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I926" s="5"/>
+    </row>
+    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I927" s="5"/>
+    </row>
+    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I928" s="5"/>
+    </row>
+    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I929" s="5"/>
+    </row>
+    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I930" s="5"/>
+    </row>
+    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I931" s="5"/>
+    </row>
+    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I932" s="5"/>
+    </row>
+    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I933" s="5"/>
+    </row>
+    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I934" s="5"/>
+    </row>
+    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I935" s="5"/>
+    </row>
+    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I936" s="5"/>
+    </row>
+    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I937" s="5"/>
+    </row>
+    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I938" s="5"/>
+    </row>
+    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I939" s="5"/>
+    </row>
+    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I940" s="5"/>
+    </row>
+    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I941" s="5"/>
+    </row>
+    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I942" s="5"/>
+    </row>
+    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I943" s="5"/>
+    </row>
+    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I944" s="5"/>
+    </row>
+    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I945" s="5"/>
+    </row>
+    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I946" s="5"/>
+    </row>
+    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I947" s="5"/>
+    </row>
+    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I948" s="5"/>
+    </row>
+    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I949" s="5"/>
+    </row>
+    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I950" s="5"/>
+    </row>
+    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I951" s="5"/>
+    </row>
+    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I952" s="5"/>
+    </row>
+    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I953" s="5"/>
+    </row>
+    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I954" s="5"/>
+    </row>
+    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I955" s="5"/>
+    </row>
+    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I956" s="5"/>
+    </row>
+    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I957" s="5"/>
+    </row>
+    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I958" s="5"/>
+    </row>
+    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I959" s="5"/>
+    </row>
+    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I960" s="5"/>
+    </row>
+    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I961" s="5"/>
+    </row>
+    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I962" s="5"/>
+    </row>
+    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I963" s="5"/>
+    </row>
+    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I964" s="5"/>
+    </row>
+    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I965" s="5"/>
+    </row>
+    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I966" s="5"/>
+    </row>
+    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I967" s="5"/>
+    </row>
+    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I968" s="5"/>
+    </row>
+    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I969" s="5"/>
+    </row>
+    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I970" s="5"/>
+    </row>
+    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I971" s="5"/>
+    </row>
+    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I972" s="5"/>
+    </row>
+    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I973" s="5"/>
+    </row>
+    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I974" s="5"/>
+    </row>
+    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I975" s="5"/>
+    </row>
+    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I976" s="5"/>
+    </row>
+    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I977" s="5"/>
+    </row>
+    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I978" s="5"/>
+    </row>
+    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I979" s="5"/>
+    </row>
+    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I980" s="5"/>
+    </row>
+    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I981" s="5"/>
+    </row>
+    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I982" s="5"/>
+    </row>
+    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I983" s="5"/>
+    </row>
+    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I984" s="5"/>
+    </row>
+    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I985" s="5"/>
+    </row>
+    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I986" s="5"/>
+    </row>
+    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I987" s="5"/>
+    </row>
+    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I988" s="5"/>
+    </row>
+    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I989" s="5"/>
+    </row>
+    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I990" s="5"/>
+    </row>
+    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I991" s="5"/>
+    </row>
+    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I992" s="5"/>
+    </row>
+    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I993" s="5"/>
+    </row>
+    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I994" s="5"/>
+    </row>
+    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I995" s="5"/>
+    </row>
+    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I996" s="5"/>
+    </row>
+    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I997" s="5"/>
+    </row>
+    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I998" s="5"/>
+    </row>
+    <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I999" s="5"/>
+    </row>
+    <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I1000" s="5"/>
+    </row>
+    <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I1001" s="5"/>
+    </row>
+    <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I1002" s="5"/>
+    </row>
+    <row r="1003" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I1003" s="5"/>
     </row>
     <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/Spreadsheets/Seattle Playoffs.xlsx
+++ b/Spreadsheets/Seattle Playoffs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="15">
   <si>
     <t xml:space="preserve">YEAR</t>
   </si>
@@ -52,10 +52,10 @@
     <t xml:space="preserve">STORM</t>
   </si>
   <si>
-    <t xml:space="preserve">---</t>
+    <t xml:space="preserve">Y</t>
   </si>
   <si>
-    <t xml:space="preserve">Y</t>
+    <t xml:space="preserve">---</t>
   </si>
   <si>
     <t xml:space="preserve">LOL</t>
@@ -154,28 +154,32 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -268,7 +272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -280,4013 +284,4015 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="10.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>2022</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5" t="n">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6" t="n">
         <f aca="false">COUNTIF(B2:H2, "Y")</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>2021</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="5" t="n">
+      <c r="I3" s="6" t="n">
         <f aca="false">COUNTIF(B3:H3, "Y")</f>
         <v>1</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>2020</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="5" t="n">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="6" t="n">
         <f aca="false">COUNTIF(B4:H4, "Y")</f>
         <v>2</v>
       </c>
-      <c r="J4" s="3"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="5" t="n">
         <v>2019</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="5" t="n">
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="6" t="n">
         <f aca="false">COUNTIF(B5:H5, "Y")</f>
         <v>3</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>11</v>
+      <c r="J5" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="5" t="n">
         <v>2018</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="5" t="n">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="6" t="n">
         <f aca="false">COUNTIF(B6:H6, "Y")</f>
         <v>1</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>11</v>
+      <c r="J6" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+      <c r="A7" s="5" t="n">
         <v>2017</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="5" t="n">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="6" t="n">
         <f aca="false">COUNTIF(B7:H7, "Y")</f>
         <v>1</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>11</v>
+      <c r="J7" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+      <c r="A8" s="5" t="n">
         <v>2016</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="5" t="n">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="6" t="n">
         <f aca="false">COUNTIF(B8:H8, "Y")</f>
         <v>3</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>11</v>
+      <c r="J8" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+      <c r="A9" s="5" t="n">
         <v>2015</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="5" t="n">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="6" t="n">
         <f aca="false">COUNTIF(B9:H9, "Y")</f>
         <v>2</v>
       </c>
-      <c r="J9" s="3"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
+      <c r="A10" s="5" t="n">
         <v>2014</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="5" t="n">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="6" t="n">
         <f aca="false">COUNTIF(B10:H10, "Y")</f>
         <v>2</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+      <c r="A11" s="5" t="n">
         <v>2013</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="5" t="n">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="6" t="n">
         <f aca="false">COUNTIF(B11:H11, "Y")</f>
         <v>2</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>11</v>
+      <c r="J11" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+      <c r="A12" s="5" t="n">
         <v>2012</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="5" t="n">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="6" t="n">
         <f aca="false">COUNTIF(B12:H12, "Y")</f>
         <v>2</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>11</v>
+      <c r="J12" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
+      <c r="A13" s="5" t="n">
         <v>2011</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="5" t="n">
+      <c r="E13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="6" t="n">
         <f aca="false">COUNTIF(B13:H13, "Y")</f>
         <v>2</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>11</v>
+      <c r="J13" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
+      <c r="A14" s="5" t="n">
         <v>2010</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="B14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="5" t="n">
+      <c r="E14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="6" t="n">
         <f aca="false">COUNTIF(B14:H14, "Y")</f>
         <v>3</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>11</v>
+      <c r="J14" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
+      <c r="A15" s="5" t="n">
         <v>2009</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
+      <c r="B15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
+      <c r="E15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="5" t="n">
+      <c r="H15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="6" t="n">
         <f aca="false">COUNTIF(B15:H15, "Y")</f>
         <v>2</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>11</v>
+      <c r="J15" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
+      <c r="A16" s="5" t="n">
         <v>2008</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="5" t="n">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="6" t="n">
         <f aca="false">COUNTIF(B16:H16, "Y")</f>
         <v>0</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>11</v>
+      <c r="J16" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
+      <c r="A17" s="5" t="n">
         <v>2007</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="C17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="5" t="n">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="6" t="n">
         <f aca="false">COUNTIF(B17:H17, "Y")</f>
         <v>1</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>11</v>
+      <c r="J17" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
+      <c r="A18" s="5" t="n">
         <v>2006</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="C18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="5" t="n">
+      <c r="E18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="6" t="n">
         <f aca="false">COUNTIF(B18:H18, "Y")</f>
         <v>2</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>11</v>
+      <c r="J18" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
+      <c r="A19" s="5" t="n">
         <v>2005</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="5" t="n">
+      <c r="E19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="6" t="n">
         <f aca="false">COUNTIF(B19:H19, "Y")</f>
         <v>3</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>11</v>
+      <c r="J19" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
+      <c r="A20" s="5" t="n">
         <v>2004</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="C20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="5" t="n">
+      <c r="E20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="6" t="n">
         <f aca="false">COUNTIF(B20:H20, "Y")</f>
         <v>2</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>11</v>
+      <c r="J20" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="n">
+      <c r="A21" s="5" t="n">
         <v>2003</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="C21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="5" t="n">
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="6" t="n">
         <f aca="false">COUNTIF(B21:H21, "Y")</f>
         <v>1</v>
       </c>
-      <c r="J21" s="3"/>
+      <c r="J21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="n">
+      <c r="A22" s="5" t="n">
         <v>2002</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3" t="s">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="5" t="n">
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="6" t="n">
         <f aca="false">COUNTIF(B22:H22, "Y")</f>
         <v>1</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>11</v>
+      <c r="J22" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
+      <c r="A23" s="5" t="n">
         <v>2001</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="5" t="n">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="6" t="n">
         <f aca="false">COUNTIF(B23:H23, "Y")</f>
         <v>2</v>
       </c>
-      <c r="J23" s="3"/>
+      <c r="J23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="n">
+      <c r="A24" s="5" t="n">
         <v>2000</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="5" t="n">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="6" t="n">
         <f aca="false">COUNTIF(B24:H24, "Y")</f>
         <v>2</v>
       </c>
-      <c r="J24" s="3"/>
+      <c r="J24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="n">
+      <c r="A25" s="5" t="n">
         <v>1999</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="5" t="n">
+      <c r="C25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="6" t="n">
         <f aca="false">COUNTIF(B25:H25, "Y")</f>
         <v>2</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="n">
+      <c r="A26" s="5" t="n">
         <v>1998</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" s="5" t="n">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="6" t="n">
         <f aca="false">COUNTIF(B26:H26, "Y")</f>
         <v>2</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>10</v>
+      <c r="J26" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="n">
+      <c r="A27" s="5" t="n">
         <v>1997</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" s="5" t="n">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="6" t="n">
         <f aca="false">COUNTIF(B27:H27, "Y")</f>
         <v>2</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>10</v>
+      <c r="J27" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="n">
+      <c r="A28" s="5" t="n">
         <v>1996</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28" s="5" t="n">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="6" t="n">
         <f aca="false">COUNTIF(B28:H28, "Y")</f>
         <v>1</v>
       </c>
-      <c r="J28" s="3" t="s">
-        <v>10</v>
+      <c r="J28" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="n">
+      <c r="A29" s="5" t="n">
         <v>1995</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="5" t="n">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="6" t="n">
         <f aca="false">COUNTIF(B29:H29, "Y")</f>
         <v>2</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>10</v>
+      <c r="J29" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="n">
+      <c r="A30" s="5" t="n">
         <v>1994</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="5" t="n">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="6" t="n">
         <f aca="false">COUNTIF(B30:H30, "Y")</f>
         <v>1</v>
       </c>
-      <c r="J30" s="3" t="s">
-        <v>10</v>
+      <c r="J30" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="n">
+      <c r="A31" s="5" t="n">
         <v>1993</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I31" s="5" t="n">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="6" t="n">
         <f aca="false">COUNTIF(B31:H31, "Y")</f>
         <v>2</v>
       </c>
-      <c r="J31" s="3" t="s">
-        <v>10</v>
+      <c r="J31" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="n">
+      <c r="A32" s="5" t="n">
         <v>1992</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="5" t="n">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="6" t="n">
         <f aca="false">COUNTIF(B32:H32, "Y")</f>
         <v>2</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>10</v>
+      <c r="J32" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="n">
+      <c r="A33" s="5" t="n">
         <v>1991</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" s="5" t="n">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="6" t="n">
         <f aca="false">COUNTIF(B33:H33, "Y")</f>
         <v>2</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>10</v>
+      <c r="J33" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="n">
+      <c r="A34" s="5" t="n">
         <v>1990</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I34" s="5" t="n">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="6" t="n">
         <f aca="false">COUNTIF(B34:H34, "Y")</f>
         <v>0</v>
       </c>
-      <c r="J34" s="3" t="s">
-        <v>10</v>
+      <c r="J34" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="n">
+      <c r="A35" s="5" t="n">
         <v>1989</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35" s="5" t="n">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="6" t="n">
         <f aca="false">COUNTIF(B35:H35, "Y")</f>
         <v>1</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>10</v>
+      <c r="J35" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="n">
+      <c r="A36" s="5" t="n">
         <v>1988</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="5" t="n">
+      <c r="C36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" s="6" t="n">
         <f aca="false">COUNTIF(B36:H36, "Y")</f>
         <v>2</v>
       </c>
-      <c r="J36" s="3" t="s">
-        <v>10</v>
+      <c r="J36" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="n">
+      <c r="A37" s="5" t="n">
         <v>1987</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I37" s="5" t="n">
+      <c r="C37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" s="6" t="n">
         <f aca="false">COUNTIF(B37:H37, "Y")</f>
         <v>2</v>
       </c>
-      <c r="J37" s="3" t="s">
-        <v>10</v>
+      <c r="J37" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="n">
+      <c r="A38" s="5" t="n">
         <v>1986</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38" s="5" t="n">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" s="6" t="n">
         <f aca="false">COUNTIF(B38:H38, "Y")</f>
         <v>1</v>
       </c>
-      <c r="J38" s="3" t="s">
-        <v>10</v>
+      <c r="J38" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="n">
+      <c r="A39" s="5" t="n">
         <v>1985</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I39" s="5" t="n">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="6" t="n">
         <f aca="false">COUNTIF(B39:H39, "Y")</f>
         <v>2</v>
       </c>
-      <c r="J39" s="3" t="s">
-        <v>10</v>
+      <c r="J39" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I40" s="5"/>
+      <c r="I40" s="6"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I41" s="5"/>
+      <c r="I41" s="6"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I42" s="5"/>
+      <c r="I42" s="6"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I43" s="5"/>
+      <c r="I43" s="6"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I44" s="5"/>
+      <c r="I44" s="6"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I45" s="5"/>
+      <c r="I45" s="6"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I46" s="5"/>
+      <c r="I46" s="6"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I47" s="5"/>
+      <c r="I47" s="6"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I48" s="5"/>
+      <c r="I48" s="6"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I49" s="5"/>
+      <c r="I49" s="6"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I50" s="5"/>
+      <c r="I50" s="6"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I51" s="5"/>
+      <c r="I51" s="6"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I52" s="5"/>
+      <c r="I52" s="6"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I53" s="5"/>
+      <c r="I53" s="6"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I54" s="5"/>
+      <c r="I54" s="6"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I55" s="5"/>
+      <c r="I55" s="6"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I56" s="5"/>
+      <c r="I56" s="6"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I57" s="5"/>
+      <c r="I57" s="6"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I58" s="5"/>
+      <c r="I58" s="6"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I59" s="5"/>
+      <c r="I59" s="6"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I60" s="5"/>
+      <c r="I60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I61" s="5"/>
+      <c r="I61" s="6"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I62" s="5"/>
+      <c r="I62" s="6"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I63" s="5"/>
+      <c r="I63" s="6"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I64" s="5"/>
+      <c r="I64" s="6"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I65" s="5"/>
+      <c r="I65" s="6"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I66" s="5"/>
+      <c r="I66" s="6"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I67" s="5"/>
+      <c r="I67" s="6"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I68" s="5"/>
+      <c r="I68" s="6"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I69" s="5"/>
+      <c r="I69" s="6"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I70" s="5"/>
+      <c r="I70" s="6"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I71" s="5"/>
+      <c r="I71" s="6"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I72" s="5"/>
+      <c r="I72" s="6"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I73" s="5"/>
+      <c r="I73" s="6"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I74" s="5"/>
+      <c r="I74" s="6"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I75" s="5"/>
+      <c r="I75" s="6"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I76" s="5"/>
+      <c r="I76" s="6"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I77" s="5"/>
+      <c r="I77" s="6"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I78" s="5"/>
+      <c r="I78" s="6"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I79" s="5"/>
+      <c r="I79" s="6"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I80" s="5"/>
+      <c r="I80" s="6"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I81" s="5"/>
+      <c r="I81" s="6"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I82" s="5"/>
+      <c r="I82" s="6"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I83" s="5"/>
+      <c r="I83" s="6"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I84" s="5"/>
+      <c r="I84" s="6"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I85" s="5"/>
+      <c r="I85" s="6"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I86" s="5"/>
+      <c r="I86" s="6"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I87" s="5"/>
+      <c r="I87" s="6"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I88" s="5"/>
+      <c r="I88" s="6"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I89" s="5"/>
+      <c r="I89" s="6"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I90" s="5"/>
+      <c r="I90" s="6"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I91" s="5"/>
+      <c r="I91" s="6"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I92" s="5"/>
+      <c r="I92" s="6"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I93" s="5"/>
+      <c r="I93" s="6"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I94" s="5"/>
+      <c r="I94" s="6"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I95" s="5"/>
+      <c r="I95" s="6"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I96" s="5"/>
+      <c r="I96" s="6"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I97" s="5"/>
+      <c r="I97" s="6"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I98" s="5"/>
+      <c r="I98" s="6"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I99" s="5"/>
+      <c r="I99" s="6"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I100" s="5"/>
+      <c r="I100" s="6"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I101" s="5"/>
+      <c r="I101" s="6"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I102" s="5"/>
+      <c r="I102" s="6"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I103" s="5"/>
+      <c r="I103" s="6"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I104" s="5"/>
+      <c r="I104" s="6"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I105" s="5"/>
+      <c r="I105" s="6"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I106" s="5"/>
+      <c r="I106" s="6"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I107" s="5"/>
+      <c r="I107" s="6"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I108" s="5"/>
+      <c r="I108" s="6"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I109" s="5"/>
+      <c r="I109" s="6"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I110" s="5"/>
+      <c r="I110" s="6"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I111" s="5"/>
+      <c r="I111" s="6"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I112" s="5"/>
+      <c r="I112" s="6"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I113" s="5"/>
+      <c r="I113" s="6"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I114" s="5"/>
+      <c r="I114" s="6"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I115" s="5"/>
+      <c r="I115" s="6"/>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I116" s="5"/>
+      <c r="I116" s="6"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I117" s="5"/>
+      <c r="I117" s="6"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I118" s="5"/>
+      <c r="I118" s="6"/>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I119" s="5"/>
+      <c r="I119" s="6"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I120" s="5"/>
+      <c r="I120" s="6"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I121" s="5"/>
+      <c r="I121" s="6"/>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I122" s="5"/>
+      <c r="I122" s="6"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I123" s="5"/>
+      <c r="I123" s="6"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I124" s="5"/>
+      <c r="I124" s="6"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I125" s="5"/>
+      <c r="I125" s="6"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I126" s="5"/>
+      <c r="I126" s="6"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I127" s="5"/>
+      <c r="I127" s="6"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I128" s="5"/>
+      <c r="I128" s="6"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I129" s="5"/>
+      <c r="I129" s="6"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I130" s="5"/>
+      <c r="I130" s="6"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I131" s="5"/>
+      <c r="I131" s="6"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I132" s="5"/>
+      <c r="I132" s="6"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I133" s="5"/>
+      <c r="I133" s="6"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I134" s="5"/>
+      <c r="I134" s="6"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I135" s="5"/>
+      <c r="I135" s="6"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I136" s="5"/>
+      <c r="I136" s="6"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I137" s="5"/>
+      <c r="I137" s="6"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I138" s="5"/>
+      <c r="I138" s="6"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I139" s="5"/>
+      <c r="I139" s="6"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I140" s="5"/>
+      <c r="I140" s="6"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I141" s="5"/>
+      <c r="I141" s="6"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I142" s="5"/>
+      <c r="I142" s="6"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I143" s="5"/>
+      <c r="I143" s="6"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I144" s="5"/>
+      <c r="I144" s="6"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I145" s="5"/>
+      <c r="I145" s="6"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I146" s="5"/>
+      <c r="I146" s="6"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I147" s="5"/>
+      <c r="I147" s="6"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I148" s="5"/>
+      <c r="I148" s="6"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I149" s="5"/>
+      <c r="I149" s="6"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I150" s="5"/>
+      <c r="I150" s="6"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I151" s="5"/>
+      <c r="I151" s="6"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I152" s="5"/>
+      <c r="I152" s="6"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I153" s="5"/>
+      <c r="I153" s="6"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I154" s="5"/>
+      <c r="I154" s="6"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I155" s="5"/>
+      <c r="I155" s="6"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I156" s="5"/>
+      <c r="I156" s="6"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I157" s="5"/>
+      <c r="I157" s="6"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I158" s="5"/>
+      <c r="I158" s="6"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I159" s="5"/>
+      <c r="I159" s="6"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I160" s="5"/>
+      <c r="I160" s="6"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I161" s="5"/>
+      <c r="I161" s="6"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I162" s="5"/>
+      <c r="I162" s="6"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I163" s="5"/>
+      <c r="I163" s="6"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I164" s="5"/>
+      <c r="I164" s="6"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I165" s="5"/>
+      <c r="I165" s="6"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I166" s="5"/>
+      <c r="I166" s="6"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I167" s="5"/>
+      <c r="I167" s="6"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I168" s="5"/>
+      <c r="I168" s="6"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I169" s="5"/>
+      <c r="I169" s="6"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I170" s="5"/>
+      <c r="I170" s="6"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I171" s="5"/>
+      <c r="I171" s="6"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I172" s="5"/>
+      <c r="I172" s="6"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I173" s="5"/>
+      <c r="I173" s="6"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I174" s="5"/>
+      <c r="I174" s="6"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I175" s="5"/>
+      <c r="I175" s="6"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I176" s="5"/>
+      <c r="I176" s="6"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I177" s="5"/>
+      <c r="I177" s="6"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I178" s="5"/>
+      <c r="I178" s="6"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I179" s="5"/>
+      <c r="I179" s="6"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I180" s="5"/>
+      <c r="I180" s="6"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I181" s="5"/>
+      <c r="I181" s="6"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I182" s="5"/>
+      <c r="I182" s="6"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I183" s="5"/>
+      <c r="I183" s="6"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I184" s="5"/>
+      <c r="I184" s="6"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I185" s="5"/>
+      <c r="I185" s="6"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I186" s="5"/>
+      <c r="I186" s="6"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I187" s="5"/>
+      <c r="I187" s="6"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I188" s="5"/>
+      <c r="I188" s="6"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I189" s="5"/>
+      <c r="I189" s="6"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I190" s="5"/>
+      <c r="I190" s="6"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I191" s="5"/>
+      <c r="I191" s="6"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I192" s="5"/>
+      <c r="I192" s="6"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I193" s="5"/>
+      <c r="I193" s="6"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I194" s="5"/>
+      <c r="I194" s="6"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I195" s="5"/>
+      <c r="I195" s="6"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I196" s="5"/>
+      <c r="I196" s="6"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I197" s="5"/>
+      <c r="I197" s="6"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I198" s="5"/>
+      <c r="I198" s="6"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I199" s="5"/>
+      <c r="I199" s="6"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I200" s="5"/>
+      <c r="I200" s="6"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I201" s="5"/>
+      <c r="I201" s="6"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I202" s="5"/>
+      <c r="I202" s="6"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I203" s="5"/>
+      <c r="I203" s="6"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I204" s="5"/>
+      <c r="I204" s="6"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I205" s="5"/>
+      <c r="I205" s="6"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I206" s="5"/>
+      <c r="I206" s="6"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I207" s="5"/>
+      <c r="I207" s="6"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I208" s="5"/>
+      <c r="I208" s="6"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I209" s="5"/>
+      <c r="I209" s="6"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I210" s="5"/>
+      <c r="I210" s="6"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I211" s="5"/>
+      <c r="I211" s="6"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I212" s="5"/>
+      <c r="I212" s="6"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I213" s="5"/>
+      <c r="I213" s="6"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I214" s="5"/>
+      <c r="I214" s="6"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I215" s="5"/>
+      <c r="I215" s="6"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I216" s="5"/>
+      <c r="I216" s="6"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I217" s="5"/>
+      <c r="I217" s="6"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I218" s="5"/>
+      <c r="I218" s="6"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I219" s="5"/>
+      <c r="I219" s="6"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I220" s="5"/>
+      <c r="I220" s="6"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I221" s="5"/>
+      <c r="I221" s="6"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I222" s="5"/>
+      <c r="I222" s="6"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I223" s="5"/>
+      <c r="I223" s="6"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I224" s="5"/>
+      <c r="I224" s="6"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I225" s="5"/>
+      <c r="I225" s="6"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I226" s="5"/>
+      <c r="I226" s="6"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I227" s="5"/>
+      <c r="I227" s="6"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I228" s="5"/>
+      <c r="I228" s="6"/>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I229" s="5"/>
+      <c r="I229" s="6"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I230" s="5"/>
+      <c r="I230" s="6"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I231" s="5"/>
+      <c r="I231" s="6"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I232" s="5"/>
+      <c r="I232" s="6"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I233" s="5"/>
+      <c r="I233" s="6"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I234" s="5"/>
+      <c r="I234" s="6"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I235" s="5"/>
+      <c r="I235" s="6"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I236" s="5"/>
+      <c r="I236" s="6"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I237" s="5"/>
+      <c r="I237" s="6"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I238" s="5"/>
+      <c r="I238" s="6"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I239" s="5"/>
+      <c r="I239" s="6"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I240" s="5"/>
+      <c r="I240" s="6"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I241" s="5"/>
+      <c r="I241" s="6"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I242" s="5"/>
+      <c r="I242" s="6"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I243" s="5"/>
+      <c r="I243" s="6"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I244" s="5"/>
+      <c r="I244" s="6"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I245" s="5"/>
+      <c r="I245" s="6"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I246" s="5"/>
+      <c r="I246" s="6"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I247" s="5"/>
+      <c r="I247" s="6"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I248" s="5"/>
+      <c r="I248" s="6"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I249" s="5"/>
+      <c r="I249" s="6"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I250" s="5"/>
+      <c r="I250" s="6"/>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I251" s="5"/>
+      <c r="I251" s="6"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I252" s="5"/>
+      <c r="I252" s="6"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I253" s="5"/>
+      <c r="I253" s="6"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I254" s="5"/>
+      <c r="I254" s="6"/>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I255" s="5"/>
+      <c r="I255" s="6"/>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I256" s="5"/>
+      <c r="I256" s="6"/>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I257" s="5"/>
+      <c r="I257" s="6"/>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I258" s="5"/>
+      <c r="I258" s="6"/>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I259" s="5"/>
+      <c r="I259" s="6"/>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I260" s="5"/>
+      <c r="I260" s="6"/>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I261" s="5"/>
+      <c r="I261" s="6"/>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I262" s="5"/>
+      <c r="I262" s="6"/>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I263" s="5"/>
+      <c r="I263" s="6"/>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I264" s="5"/>
+      <c r="I264" s="6"/>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I265" s="5"/>
+      <c r="I265" s="6"/>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I266" s="5"/>
+      <c r="I266" s="6"/>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I267" s="5"/>
+      <c r="I267" s="6"/>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I268" s="5"/>
+      <c r="I268" s="6"/>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I269" s="5"/>
+      <c r="I269" s="6"/>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I270" s="5"/>
+      <c r="I270" s="6"/>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I271" s="5"/>
+      <c r="I271" s="6"/>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I272" s="5"/>
+      <c r="I272" s="6"/>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I273" s="5"/>
+      <c r="I273" s="6"/>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I274" s="5"/>
+      <c r="I274" s="6"/>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I275" s="5"/>
+      <c r="I275" s="6"/>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I276" s="5"/>
+      <c r="I276" s="6"/>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I277" s="5"/>
+      <c r="I277" s="6"/>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I278" s="5"/>
+      <c r="I278" s="6"/>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I279" s="5"/>
+      <c r="I279" s="6"/>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I280" s="5"/>
+      <c r="I280" s="6"/>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I281" s="5"/>
+      <c r="I281" s="6"/>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I282" s="5"/>
+      <c r="I282" s="6"/>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I283" s="5"/>
+      <c r="I283" s="6"/>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I284" s="5"/>
+      <c r="I284" s="6"/>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I285" s="5"/>
+      <c r="I285" s="6"/>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I286" s="5"/>
+      <c r="I286" s="6"/>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I287" s="5"/>
+      <c r="I287" s="6"/>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I288" s="5"/>
+      <c r="I288" s="6"/>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I289" s="5"/>
+      <c r="I289" s="6"/>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I290" s="5"/>
+      <c r="I290" s="6"/>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I291" s="5"/>
+      <c r="I291" s="6"/>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I292" s="5"/>
+      <c r="I292" s="6"/>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I293" s="5"/>
+      <c r="I293" s="6"/>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I294" s="5"/>
+      <c r="I294" s="6"/>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I295" s="5"/>
+      <c r="I295" s="6"/>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I296" s="5"/>
+      <c r="I296" s="6"/>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I297" s="5"/>
+      <c r="I297" s="6"/>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I298" s="5"/>
+      <c r="I298" s="6"/>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I299" s="5"/>
+      <c r="I299" s="6"/>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I300" s="5"/>
+      <c r="I300" s="6"/>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I301" s="5"/>
+      <c r="I301" s="6"/>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I302" s="5"/>
+      <c r="I302" s="6"/>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I303" s="5"/>
+      <c r="I303" s="6"/>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I304" s="5"/>
+      <c r="I304" s="6"/>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I305" s="5"/>
+      <c r="I305" s="6"/>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I306" s="5"/>
+      <c r="I306" s="6"/>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I307" s="5"/>
+      <c r="I307" s="6"/>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I308" s="5"/>
+      <c r="I308" s="6"/>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I309" s="5"/>
+      <c r="I309" s="6"/>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I310" s="5"/>
+      <c r="I310" s="6"/>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I311" s="5"/>
+      <c r="I311" s="6"/>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I312" s="5"/>
+      <c r="I312" s="6"/>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I313" s="5"/>
+      <c r="I313" s="6"/>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I314" s="5"/>
+      <c r="I314" s="6"/>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I315" s="5"/>
+      <c r="I315" s="6"/>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I316" s="5"/>
+      <c r="I316" s="6"/>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I317" s="5"/>
+      <c r="I317" s="6"/>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I318" s="5"/>
+      <c r="I318" s="6"/>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I319" s="5"/>
+      <c r="I319" s="6"/>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I320" s="5"/>
+      <c r="I320" s="6"/>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I321" s="5"/>
+      <c r="I321" s="6"/>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I322" s="5"/>
+      <c r="I322" s="6"/>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I323" s="5"/>
+      <c r="I323" s="6"/>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I324" s="5"/>
+      <c r="I324" s="6"/>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I325" s="5"/>
+      <c r="I325" s="6"/>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I326" s="5"/>
+      <c r="I326" s="6"/>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I327" s="5"/>
+      <c r="I327" s="6"/>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I328" s="5"/>
+      <c r="I328" s="6"/>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I329" s="5"/>
+      <c r="I329" s="6"/>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I330" s="5"/>
+      <c r="I330" s="6"/>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I331" s="5"/>
+      <c r="I331" s="6"/>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I332" s="5"/>
+      <c r="I332" s="6"/>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I333" s="5"/>
+      <c r="I333" s="6"/>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I334" s="5"/>
+      <c r="I334" s="6"/>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I335" s="5"/>
+      <c r="I335" s="6"/>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I336" s="5"/>
+      <c r="I336" s="6"/>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I337" s="5"/>
+      <c r="I337" s="6"/>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I338" s="5"/>
+      <c r="I338" s="6"/>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I339" s="5"/>
+      <c r="I339" s="6"/>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I340" s="5"/>
+      <c r="I340" s="6"/>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I341" s="5"/>
+      <c r="I341" s="6"/>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I342" s="5"/>
+      <c r="I342" s="6"/>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I343" s="5"/>
+      <c r="I343" s="6"/>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I344" s="5"/>
+      <c r="I344" s="6"/>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I345" s="5"/>
+      <c r="I345" s="6"/>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I346" s="5"/>
+      <c r="I346" s="6"/>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I347" s="5"/>
+      <c r="I347" s="6"/>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I348" s="5"/>
+      <c r="I348" s="6"/>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I349" s="5"/>
+      <c r="I349" s="6"/>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I350" s="5"/>
+      <c r="I350" s="6"/>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I351" s="5"/>
+      <c r="I351" s="6"/>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I352" s="5"/>
+      <c r="I352" s="6"/>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I353" s="5"/>
+      <c r="I353" s="6"/>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I354" s="5"/>
+      <c r="I354" s="6"/>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I355" s="5"/>
+      <c r="I355" s="6"/>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I356" s="5"/>
+      <c r="I356" s="6"/>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I357" s="5"/>
+      <c r="I357" s="6"/>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I358" s="5"/>
+      <c r="I358" s="6"/>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I359" s="5"/>
+      <c r="I359" s="6"/>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I360" s="5"/>
+      <c r="I360" s="6"/>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I361" s="5"/>
+      <c r="I361" s="6"/>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I362" s="5"/>
+      <c r="I362" s="6"/>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I363" s="5"/>
+      <c r="I363" s="6"/>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I364" s="5"/>
+      <c r="I364" s="6"/>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I365" s="5"/>
+      <c r="I365" s="6"/>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I366" s="5"/>
+      <c r="I366" s="6"/>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I367" s="5"/>
+      <c r="I367" s="6"/>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I368" s="5"/>
+      <c r="I368" s="6"/>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I369" s="5"/>
+      <c r="I369" s="6"/>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I370" s="5"/>
+      <c r="I370" s="6"/>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I371" s="5"/>
+      <c r="I371" s="6"/>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I372" s="5"/>
+      <c r="I372" s="6"/>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I373" s="5"/>
+      <c r="I373" s="6"/>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I374" s="5"/>
+      <c r="I374" s="6"/>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I375" s="5"/>
+      <c r="I375" s="6"/>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I376" s="5"/>
+      <c r="I376" s="6"/>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I377" s="5"/>
+      <c r="I377" s="6"/>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I378" s="5"/>
+      <c r="I378" s="6"/>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I379" s="5"/>
+      <c r="I379" s="6"/>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I380" s="5"/>
+      <c r="I380" s="6"/>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I381" s="5"/>
+      <c r="I381" s="6"/>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I382" s="5"/>
+      <c r="I382" s="6"/>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I383" s="5"/>
+      <c r="I383" s="6"/>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I384" s="5"/>
+      <c r="I384" s="6"/>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I385" s="5"/>
+      <c r="I385" s="6"/>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I386" s="5"/>
+      <c r="I386" s="6"/>
     </row>
     <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I387" s="5"/>
+      <c r="I387" s="6"/>
     </row>
     <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I388" s="5"/>
+      <c r="I388" s="6"/>
     </row>
     <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I389" s="5"/>
+      <c r="I389" s="6"/>
     </row>
     <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I390" s="5"/>
+      <c r="I390" s="6"/>
     </row>
     <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I391" s="5"/>
+      <c r="I391" s="6"/>
     </row>
     <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I392" s="5"/>
+      <c r="I392" s="6"/>
     </row>
     <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I393" s="5"/>
+      <c r="I393" s="6"/>
     </row>
     <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I394" s="5"/>
+      <c r="I394" s="6"/>
     </row>
     <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I395" s="5"/>
+      <c r="I395" s="6"/>
     </row>
     <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I396" s="5"/>
+      <c r="I396" s="6"/>
     </row>
     <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I397" s="5"/>
+      <c r="I397" s="6"/>
     </row>
     <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I398" s="5"/>
+      <c r="I398" s="6"/>
     </row>
     <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I399" s="5"/>
+      <c r="I399" s="6"/>
     </row>
     <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I400" s="5"/>
+      <c r="I400" s="6"/>
     </row>
     <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I401" s="5"/>
+      <c r="I401" s="6"/>
     </row>
     <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I402" s="5"/>
+      <c r="I402" s="6"/>
     </row>
     <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I403" s="5"/>
+      <c r="I403" s="6"/>
     </row>
     <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I404" s="5"/>
+      <c r="I404" s="6"/>
     </row>
     <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I405" s="5"/>
+      <c r="I405" s="6"/>
     </row>
     <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I406" s="5"/>
+      <c r="I406" s="6"/>
     </row>
     <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I407" s="5"/>
+      <c r="I407" s="6"/>
     </row>
     <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I408" s="5"/>
+      <c r="I408" s="6"/>
     </row>
     <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I409" s="5"/>
+      <c r="I409" s="6"/>
     </row>
     <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I410" s="5"/>
+      <c r="I410" s="6"/>
     </row>
     <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I411" s="5"/>
+      <c r="I411" s="6"/>
     </row>
     <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I412" s="5"/>
+      <c r="I412" s="6"/>
     </row>
     <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I413" s="5"/>
+      <c r="I413" s="6"/>
     </row>
     <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I414" s="5"/>
+      <c r="I414" s="6"/>
     </row>
     <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I415" s="5"/>
+      <c r="I415" s="6"/>
     </row>
     <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I416" s="5"/>
+      <c r="I416" s="6"/>
     </row>
     <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I417" s="5"/>
+      <c r="I417" s="6"/>
     </row>
     <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I418" s="5"/>
+      <c r="I418" s="6"/>
     </row>
     <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I419" s="5"/>
+      <c r="I419" s="6"/>
     </row>
     <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I420" s="5"/>
+      <c r="I420" s="6"/>
     </row>
     <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I421" s="5"/>
+      <c r="I421" s="6"/>
     </row>
     <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I422" s="5"/>
+      <c r="I422" s="6"/>
     </row>
     <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I423" s="5"/>
+      <c r="I423" s="6"/>
     </row>
     <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I424" s="5"/>
+      <c r="I424" s="6"/>
     </row>
     <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I425" s="5"/>
+      <c r="I425" s="6"/>
     </row>
     <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I426" s="5"/>
+      <c r="I426" s="6"/>
     </row>
     <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I427" s="5"/>
+      <c r="I427" s="6"/>
     </row>
     <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I428" s="5"/>
+      <c r="I428" s="6"/>
     </row>
     <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I429" s="5"/>
+      <c r="I429" s="6"/>
     </row>
     <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I430" s="5"/>
+      <c r="I430" s="6"/>
     </row>
     <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I431" s="5"/>
+      <c r="I431" s="6"/>
     </row>
     <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I432" s="5"/>
+      <c r="I432" s="6"/>
     </row>
     <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I433" s="5"/>
+      <c r="I433" s="6"/>
     </row>
     <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I434" s="5"/>
+      <c r="I434" s="6"/>
     </row>
     <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I435" s="5"/>
+      <c r="I435" s="6"/>
     </row>
     <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I436" s="5"/>
+      <c r="I436" s="6"/>
     </row>
     <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I437" s="5"/>
+      <c r="I437" s="6"/>
     </row>
     <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I438" s="5"/>
+      <c r="I438" s="6"/>
     </row>
     <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I439" s="5"/>
+      <c r="I439" s="6"/>
     </row>
     <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I440" s="5"/>
+      <c r="I440" s="6"/>
     </row>
     <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I441" s="5"/>
+      <c r="I441" s="6"/>
     </row>
     <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I442" s="5"/>
+      <c r="I442" s="6"/>
     </row>
     <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I443" s="5"/>
+      <c r="I443" s="6"/>
     </row>
     <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I444" s="5"/>
+      <c r="I444" s="6"/>
     </row>
     <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I445" s="5"/>
+      <c r="I445" s="6"/>
     </row>
     <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I446" s="5"/>
+      <c r="I446" s="6"/>
     </row>
     <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I447" s="5"/>
+      <c r="I447" s="6"/>
     </row>
     <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I448" s="5"/>
+      <c r="I448" s="6"/>
     </row>
     <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I449" s="5"/>
+      <c r="I449" s="6"/>
     </row>
     <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I450" s="5"/>
+      <c r="I450" s="6"/>
     </row>
     <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I451" s="5"/>
+      <c r="I451" s="6"/>
     </row>
     <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I452" s="5"/>
+      <c r="I452" s="6"/>
     </row>
     <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I453" s="5"/>
+      <c r="I453" s="6"/>
     </row>
     <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I454" s="5"/>
+      <c r="I454" s="6"/>
     </row>
     <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I455" s="5"/>
+      <c r="I455" s="6"/>
     </row>
     <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I456" s="5"/>
+      <c r="I456" s="6"/>
     </row>
     <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I457" s="5"/>
+      <c r="I457" s="6"/>
     </row>
     <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I458" s="5"/>
+      <c r="I458" s="6"/>
     </row>
     <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I459" s="5"/>
+      <c r="I459" s="6"/>
     </row>
     <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I460" s="5"/>
+      <c r="I460" s="6"/>
     </row>
     <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I461" s="5"/>
+      <c r="I461" s="6"/>
     </row>
     <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I462" s="5"/>
+      <c r="I462" s="6"/>
     </row>
     <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I463" s="5"/>
+      <c r="I463" s="6"/>
     </row>
     <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I464" s="5"/>
+      <c r="I464" s="6"/>
     </row>
     <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I465" s="5"/>
+      <c r="I465" s="6"/>
     </row>
     <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I466" s="5"/>
+      <c r="I466" s="6"/>
     </row>
     <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I467" s="5"/>
+      <c r="I467" s="6"/>
     </row>
     <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I468" s="5"/>
+      <c r="I468" s="6"/>
     </row>
     <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I469" s="5"/>
+      <c r="I469" s="6"/>
     </row>
     <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I470" s="5"/>
+      <c r="I470" s="6"/>
     </row>
     <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I471" s="5"/>
+      <c r="I471" s="6"/>
     </row>
     <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I472" s="5"/>
+      <c r="I472" s="6"/>
     </row>
     <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I473" s="5"/>
+      <c r="I473" s="6"/>
     </row>
     <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I474" s="5"/>
+      <c r="I474" s="6"/>
     </row>
     <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I475" s="5"/>
+      <c r="I475" s="6"/>
     </row>
     <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I476" s="5"/>
+      <c r="I476" s="6"/>
     </row>
     <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I477" s="5"/>
+      <c r="I477" s="6"/>
     </row>
     <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I478" s="5"/>
+      <c r="I478" s="6"/>
     </row>
     <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I479" s="5"/>
+      <c r="I479" s="6"/>
     </row>
     <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I480" s="5"/>
+      <c r="I480" s="6"/>
     </row>
     <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I481" s="5"/>
+      <c r="I481" s="6"/>
     </row>
     <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I482" s="5"/>
+      <c r="I482" s="6"/>
     </row>
     <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I483" s="5"/>
+      <c r="I483" s="6"/>
     </row>
     <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I484" s="5"/>
+      <c r="I484" s="6"/>
     </row>
     <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I485" s="5"/>
+      <c r="I485" s="6"/>
     </row>
     <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I486" s="5"/>
+      <c r="I486" s="6"/>
     </row>
     <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I487" s="5"/>
+      <c r="I487" s="6"/>
     </row>
     <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I488" s="5"/>
+      <c r="I488" s="6"/>
     </row>
     <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I489" s="5"/>
+      <c r="I489" s="6"/>
     </row>
     <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I490" s="5"/>
+      <c r="I490" s="6"/>
     </row>
     <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I491" s="5"/>
+      <c r="I491" s="6"/>
     </row>
     <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I492" s="5"/>
+      <c r="I492" s="6"/>
     </row>
     <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I493" s="5"/>
+      <c r="I493" s="6"/>
     </row>
     <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I494" s="5"/>
+      <c r="I494" s="6"/>
     </row>
     <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I495" s="5"/>
+      <c r="I495" s="6"/>
     </row>
     <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I496" s="5"/>
+      <c r="I496" s="6"/>
     </row>
     <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I497" s="5"/>
+      <c r="I497" s="6"/>
     </row>
     <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I498" s="5"/>
+      <c r="I498" s="6"/>
     </row>
     <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I499" s="5"/>
+      <c r="I499" s="6"/>
     </row>
     <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I500" s="5"/>
+      <c r="I500" s="6"/>
     </row>
     <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I501" s="5"/>
+      <c r="I501" s="6"/>
     </row>
     <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I502" s="5"/>
+      <c r="I502" s="6"/>
     </row>
     <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I503" s="5"/>
+      <c r="I503" s="6"/>
     </row>
     <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I504" s="5"/>
+      <c r="I504" s="6"/>
     </row>
     <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I505" s="5"/>
+      <c r="I505" s="6"/>
     </row>
     <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I506" s="5"/>
+      <c r="I506" s="6"/>
     </row>
     <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I507" s="5"/>
+      <c r="I507" s="6"/>
     </row>
     <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I508" s="5"/>
+      <c r="I508" s="6"/>
     </row>
     <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I509" s="5"/>
+      <c r="I509" s="6"/>
     </row>
     <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I510" s="5"/>
+      <c r="I510" s="6"/>
     </row>
     <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I511" s="5"/>
+      <c r="I511" s="6"/>
     </row>
     <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I512" s="5"/>
+      <c r="I512" s="6"/>
     </row>
     <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I513" s="5"/>
+      <c r="I513" s="6"/>
     </row>
     <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I514" s="5"/>
+      <c r="I514" s="6"/>
     </row>
     <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I515" s="5"/>
+      <c r="I515" s="6"/>
     </row>
     <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I516" s="5"/>
+      <c r="I516" s="6"/>
     </row>
     <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I517" s="5"/>
+      <c r="I517" s="6"/>
     </row>
     <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I518" s="5"/>
+      <c r="I518" s="6"/>
     </row>
     <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I519" s="5"/>
+      <c r="I519" s="6"/>
     </row>
     <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I520" s="5"/>
+      <c r="I520" s="6"/>
     </row>
     <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I521" s="5"/>
+      <c r="I521" s="6"/>
     </row>
     <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I522" s="5"/>
+      <c r="I522" s="6"/>
     </row>
     <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I523" s="5"/>
+      <c r="I523" s="6"/>
     </row>
     <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I524" s="5"/>
+      <c r="I524" s="6"/>
     </row>
     <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I525" s="5"/>
+      <c r="I525" s="6"/>
     </row>
     <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I526" s="5"/>
+      <c r="I526" s="6"/>
     </row>
     <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I527" s="5"/>
+      <c r="I527" s="6"/>
     </row>
     <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I528" s="5"/>
+      <c r="I528" s="6"/>
     </row>
     <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I529" s="5"/>
+      <c r="I529" s="6"/>
     </row>
     <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I530" s="5"/>
+      <c r="I530" s="6"/>
     </row>
     <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I531" s="5"/>
+      <c r="I531" s="6"/>
     </row>
     <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I532" s="5"/>
+      <c r="I532" s="6"/>
     </row>
     <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I533" s="5"/>
+      <c r="I533" s="6"/>
     </row>
     <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I534" s="5"/>
+      <c r="I534" s="6"/>
     </row>
     <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I535" s="5"/>
+      <c r="I535" s="6"/>
     </row>
     <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I536" s="5"/>
+      <c r="I536" s="6"/>
     </row>
     <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I537" s="5"/>
+      <c r="I537" s="6"/>
     </row>
     <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I538" s="5"/>
+      <c r="I538" s="6"/>
     </row>
     <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I539" s="5"/>
+      <c r="I539" s="6"/>
     </row>
     <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I540" s="5"/>
+      <c r="I540" s="6"/>
     </row>
     <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I541" s="5"/>
+      <c r="I541" s="6"/>
     </row>
     <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I542" s="5"/>
+      <c r="I542" s="6"/>
     </row>
     <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I543" s="5"/>
+      <c r="I543" s="6"/>
     </row>
     <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I544" s="5"/>
+      <c r="I544" s="6"/>
     </row>
     <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I545" s="5"/>
+      <c r="I545" s="6"/>
     </row>
     <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I546" s="5"/>
+      <c r="I546" s="6"/>
     </row>
     <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I547" s="5"/>
+      <c r="I547" s="6"/>
     </row>
     <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I548" s="5"/>
+      <c r="I548" s="6"/>
     </row>
     <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I549" s="5"/>
+      <c r="I549" s="6"/>
     </row>
     <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I550" s="5"/>
+      <c r="I550" s="6"/>
     </row>
     <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I551" s="5"/>
+      <c r="I551" s="6"/>
     </row>
     <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I552" s="5"/>
+      <c r="I552" s="6"/>
     </row>
     <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I553" s="5"/>
+      <c r="I553" s="6"/>
     </row>
     <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I554" s="5"/>
+      <c r="I554" s="6"/>
     </row>
     <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I555" s="5"/>
+      <c r="I555" s="6"/>
     </row>
     <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I556" s="5"/>
+      <c r="I556" s="6"/>
     </row>
     <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I557" s="5"/>
+      <c r="I557" s="6"/>
     </row>
     <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I558" s="5"/>
+      <c r="I558" s="6"/>
     </row>
     <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I559" s="5"/>
+      <c r="I559" s="6"/>
     </row>
     <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I560" s="5"/>
+      <c r="I560" s="6"/>
     </row>
     <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I561" s="5"/>
+      <c r="I561" s="6"/>
     </row>
     <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I562" s="5"/>
+      <c r="I562" s="6"/>
     </row>
     <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I563" s="5"/>
+      <c r="I563" s="6"/>
     </row>
     <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I564" s="5"/>
+      <c r="I564" s="6"/>
     </row>
     <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I565" s="5"/>
+      <c r="I565" s="6"/>
     </row>
     <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I566" s="5"/>
+      <c r="I566" s="6"/>
     </row>
     <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I567" s="5"/>
+      <c r="I567" s="6"/>
     </row>
     <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I568" s="5"/>
+      <c r="I568" s="6"/>
     </row>
     <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I569" s="5"/>
+      <c r="I569" s="6"/>
     </row>
     <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I570" s="5"/>
+      <c r="I570" s="6"/>
     </row>
     <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I571" s="5"/>
+      <c r="I571" s="6"/>
     </row>
     <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I572" s="5"/>
+      <c r="I572" s="6"/>
     </row>
     <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I573" s="5"/>
+      <c r="I573" s="6"/>
     </row>
     <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I574" s="5"/>
+      <c r="I574" s="6"/>
     </row>
     <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I575" s="5"/>
+      <c r="I575" s="6"/>
     </row>
     <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I576" s="5"/>
+      <c r="I576" s="6"/>
     </row>
     <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I577" s="5"/>
+      <c r="I577" s="6"/>
     </row>
     <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I578" s="5"/>
+      <c r="I578" s="6"/>
     </row>
     <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I579" s="5"/>
+      <c r="I579" s="6"/>
     </row>
     <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I580" s="5"/>
+      <c r="I580" s="6"/>
     </row>
     <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I581" s="5"/>
+      <c r="I581" s="6"/>
     </row>
     <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I582" s="5"/>
+      <c r="I582" s="6"/>
     </row>
     <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I583" s="5"/>
+      <c r="I583" s="6"/>
     </row>
     <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I584" s="5"/>
+      <c r="I584" s="6"/>
     </row>
     <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I585" s="5"/>
+      <c r="I585" s="6"/>
     </row>
     <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I586" s="5"/>
+      <c r="I586" s="6"/>
     </row>
     <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I587" s="5"/>
+      <c r="I587" s="6"/>
     </row>
     <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I588" s="5"/>
+      <c r="I588" s="6"/>
     </row>
     <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I589" s="5"/>
+      <c r="I589" s="6"/>
     </row>
     <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I590" s="5"/>
+      <c r="I590" s="6"/>
     </row>
     <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I591" s="5"/>
+      <c r="I591" s="6"/>
     </row>
     <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I592" s="5"/>
+      <c r="I592" s="6"/>
     </row>
     <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I593" s="5"/>
+      <c r="I593" s="6"/>
     </row>
     <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I594" s="5"/>
+      <c r="I594" s="6"/>
     </row>
     <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I595" s="5"/>
+      <c r="I595" s="6"/>
     </row>
     <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I596" s="5"/>
+      <c r="I596" s="6"/>
     </row>
     <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I597" s="5"/>
+      <c r="I597" s="6"/>
     </row>
     <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I598" s="5"/>
+      <c r="I598" s="6"/>
     </row>
     <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I599" s="5"/>
+      <c r="I599" s="6"/>
     </row>
     <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I600" s="5"/>
+      <c r="I600" s="6"/>
     </row>
     <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I601" s="5"/>
+      <c r="I601" s="6"/>
     </row>
     <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I602" s="5"/>
+      <c r="I602" s="6"/>
     </row>
     <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I603" s="5"/>
+      <c r="I603" s="6"/>
     </row>
     <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I604" s="5"/>
+      <c r="I604" s="6"/>
     </row>
     <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I605" s="5"/>
+      <c r="I605" s="6"/>
     </row>
     <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I606" s="5"/>
+      <c r="I606" s="6"/>
     </row>
     <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I607" s="5"/>
+      <c r="I607" s="6"/>
     </row>
     <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I608" s="5"/>
+      <c r="I608" s="6"/>
     </row>
     <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I609" s="5"/>
+      <c r="I609" s="6"/>
     </row>
     <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I610" s="5"/>
+      <c r="I610" s="6"/>
     </row>
     <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I611" s="5"/>
+      <c r="I611" s="6"/>
     </row>
     <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I612" s="5"/>
+      <c r="I612" s="6"/>
     </row>
     <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I613" s="5"/>
+      <c r="I613" s="6"/>
     </row>
     <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I614" s="5"/>
+      <c r="I614" s="6"/>
     </row>
     <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I615" s="5"/>
+      <c r="I615" s="6"/>
     </row>
     <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I616" s="5"/>
+      <c r="I616" s="6"/>
     </row>
     <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I617" s="5"/>
+      <c r="I617" s="6"/>
     </row>
     <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I618" s="5"/>
+      <c r="I618" s="6"/>
     </row>
     <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I619" s="5"/>
+      <c r="I619" s="6"/>
     </row>
     <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I620" s="5"/>
+      <c r="I620" s="6"/>
     </row>
     <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I621" s="5"/>
+      <c r="I621" s="6"/>
     </row>
     <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I622" s="5"/>
+      <c r="I622" s="6"/>
     </row>
     <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I623" s="5"/>
+      <c r="I623" s="6"/>
     </row>
     <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I624" s="5"/>
+      <c r="I624" s="6"/>
     </row>
     <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I625" s="5"/>
+      <c r="I625" s="6"/>
     </row>
     <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I626" s="5"/>
+      <c r="I626" s="6"/>
     </row>
     <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I627" s="5"/>
+      <c r="I627" s="6"/>
     </row>
     <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I628" s="5"/>
+      <c r="I628" s="6"/>
     </row>
     <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I629" s="5"/>
+      <c r="I629" s="6"/>
     </row>
     <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I630" s="5"/>
+      <c r="I630" s="6"/>
     </row>
     <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I631" s="5"/>
+      <c r="I631" s="6"/>
     </row>
     <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I632" s="5"/>
+      <c r="I632" s="6"/>
     </row>
     <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I633" s="5"/>
+      <c r="I633" s="6"/>
     </row>
     <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I634" s="5"/>
+      <c r="I634" s="6"/>
     </row>
     <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I635" s="5"/>
+      <c r="I635" s="6"/>
     </row>
     <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I636" s="5"/>
+      <c r="I636" s="6"/>
     </row>
     <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I637" s="5"/>
+      <c r="I637" s="6"/>
     </row>
     <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I638" s="5"/>
+      <c r="I638" s="6"/>
     </row>
     <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I639" s="5"/>
+      <c r="I639" s="6"/>
     </row>
     <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I640" s="5"/>
+      <c r="I640" s="6"/>
     </row>
     <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I641" s="5"/>
+      <c r="I641" s="6"/>
     </row>
     <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I642" s="5"/>
+      <c r="I642" s="6"/>
     </row>
     <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I643" s="5"/>
+      <c r="I643" s="6"/>
     </row>
     <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I644" s="5"/>
+      <c r="I644" s="6"/>
     </row>
     <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I645" s="5"/>
+      <c r="I645" s="6"/>
     </row>
     <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I646" s="5"/>
+      <c r="I646" s="6"/>
     </row>
     <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I647" s="5"/>
+      <c r="I647" s="6"/>
     </row>
     <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I648" s="5"/>
+      <c r="I648" s="6"/>
     </row>
     <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I649" s="5"/>
+      <c r="I649" s="6"/>
     </row>
     <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I650" s="5"/>
+      <c r="I650" s="6"/>
     </row>
     <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I651" s="5"/>
+      <c r="I651" s="6"/>
     </row>
     <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I652" s="5"/>
+      <c r="I652" s="6"/>
     </row>
     <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I653" s="5"/>
+      <c r="I653" s="6"/>
     </row>
     <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I654" s="5"/>
+      <c r="I654" s="6"/>
     </row>
     <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I655" s="5"/>
+      <c r="I655" s="6"/>
     </row>
     <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I656" s="5"/>
+      <c r="I656" s="6"/>
     </row>
     <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I657" s="5"/>
+      <c r="I657" s="6"/>
     </row>
     <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I658" s="5"/>
+      <c r="I658" s="6"/>
     </row>
     <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I659" s="5"/>
+      <c r="I659" s="6"/>
     </row>
     <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I660" s="5"/>
+      <c r="I660" s="6"/>
     </row>
     <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I661" s="5"/>
+      <c r="I661" s="6"/>
     </row>
     <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I662" s="5"/>
+      <c r="I662" s="6"/>
     </row>
     <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I663" s="5"/>
+      <c r="I663" s="6"/>
     </row>
     <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I664" s="5"/>
+      <c r="I664" s="6"/>
     </row>
     <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I665" s="5"/>
+      <c r="I665" s="6"/>
     </row>
     <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I666" s="5"/>
+      <c r="I666" s="6"/>
     </row>
     <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I667" s="5"/>
+      <c r="I667" s="6"/>
     </row>
     <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I668" s="5"/>
+      <c r="I668" s="6"/>
     </row>
     <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I669" s="5"/>
+      <c r="I669" s="6"/>
     </row>
     <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I670" s="5"/>
+      <c r="I670" s="6"/>
     </row>
     <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I671" s="5"/>
+      <c r="I671" s="6"/>
     </row>
     <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I672" s="5"/>
+      <c r="I672" s="6"/>
     </row>
     <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I673" s="5"/>
+      <c r="I673" s="6"/>
     </row>
     <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I674" s="5"/>
+      <c r="I674" s="6"/>
     </row>
     <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I675" s="5"/>
+      <c r="I675" s="6"/>
     </row>
     <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I676" s="5"/>
+      <c r="I676" s="6"/>
     </row>
     <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I677" s="5"/>
+      <c r="I677" s="6"/>
     </row>
     <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I678" s="5"/>
+      <c r="I678" s="6"/>
     </row>
     <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I679" s="5"/>
+      <c r="I679" s="6"/>
     </row>
     <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I680" s="5"/>
+      <c r="I680" s="6"/>
     </row>
     <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I681" s="5"/>
+      <c r="I681" s="6"/>
     </row>
     <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I682" s="5"/>
+      <c r="I682" s="6"/>
     </row>
     <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I683" s="5"/>
+      <c r="I683" s="6"/>
     </row>
     <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I684" s="5"/>
+      <c r="I684" s="6"/>
     </row>
     <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I685" s="5"/>
+      <c r="I685" s="6"/>
     </row>
     <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I686" s="5"/>
+      <c r="I686" s="6"/>
     </row>
     <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I687" s="5"/>
+      <c r="I687" s="6"/>
     </row>
     <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I688" s="5"/>
+      <c r="I688" s="6"/>
     </row>
     <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I689" s="5"/>
+      <c r="I689" s="6"/>
     </row>
     <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I690" s="5"/>
+      <c r="I690" s="6"/>
     </row>
     <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I691" s="5"/>
+      <c r="I691" s="6"/>
     </row>
     <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I692" s="5"/>
+      <c r="I692" s="6"/>
     </row>
     <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I693" s="5"/>
+      <c r="I693" s="6"/>
     </row>
     <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I694" s="5"/>
+      <c r="I694" s="6"/>
     </row>
     <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I695" s="5"/>
+      <c r="I695" s="6"/>
     </row>
     <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I696" s="5"/>
+      <c r="I696" s="6"/>
     </row>
     <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I697" s="5"/>
+      <c r="I697" s="6"/>
     </row>
     <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I698" s="5"/>
+      <c r="I698" s="6"/>
     </row>
     <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I699" s="5"/>
+      <c r="I699" s="6"/>
     </row>
     <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I700" s="5"/>
+      <c r="I700" s="6"/>
     </row>
     <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I701" s="5"/>
+      <c r="I701" s="6"/>
     </row>
     <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I702" s="5"/>
+      <c r="I702" s="6"/>
     </row>
     <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I703" s="5"/>
+      <c r="I703" s="6"/>
     </row>
     <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I704" s="5"/>
+      <c r="I704" s="6"/>
     </row>
     <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I705" s="5"/>
+      <c r="I705" s="6"/>
     </row>
     <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I706" s="5"/>
+      <c r="I706" s="6"/>
     </row>
     <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I707" s="5"/>
+      <c r="I707" s="6"/>
     </row>
     <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I708" s="5"/>
+      <c r="I708" s="6"/>
     </row>
     <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I709" s="5"/>
+      <c r="I709" s="6"/>
     </row>
     <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I710" s="5"/>
+      <c r="I710" s="6"/>
     </row>
     <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I711" s="5"/>
+      <c r="I711" s="6"/>
     </row>
     <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I712" s="5"/>
+      <c r="I712" s="6"/>
     </row>
     <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I713" s="5"/>
+      <c r="I713" s="6"/>
     </row>
     <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I714" s="5"/>
+      <c r="I714" s="6"/>
     </row>
     <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I715" s="5"/>
+      <c r="I715" s="6"/>
     </row>
     <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I716" s="5"/>
+      <c r="I716" s="6"/>
     </row>
     <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I717" s="5"/>
+      <c r="I717" s="6"/>
     </row>
     <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I718" s="5"/>
+      <c r="I718" s="6"/>
     </row>
     <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I719" s="5"/>
+      <c r="I719" s="6"/>
     </row>
     <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I720" s="5"/>
+      <c r="I720" s="6"/>
     </row>
     <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I721" s="5"/>
+      <c r="I721" s="6"/>
     </row>
     <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I722" s="5"/>
+      <c r="I722" s="6"/>
     </row>
     <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I723" s="5"/>
+      <c r="I723" s="6"/>
     </row>
     <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I724" s="5"/>
+      <c r="I724" s="6"/>
     </row>
     <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I725" s="5"/>
+      <c r="I725" s="6"/>
     </row>
     <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I726" s="5"/>
+      <c r="I726" s="6"/>
     </row>
     <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I727" s="5"/>
+      <c r="I727" s="6"/>
     </row>
     <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I728" s="5"/>
+      <c r="I728" s="6"/>
     </row>
     <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I729" s="5"/>
+      <c r="I729" s="6"/>
     </row>
     <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I730" s="5"/>
+      <c r="I730" s="6"/>
     </row>
     <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I731" s="5"/>
+      <c r="I731" s="6"/>
     </row>
     <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I732" s="5"/>
+      <c r="I732" s="6"/>
     </row>
     <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I733" s="5"/>
+      <c r="I733" s="6"/>
     </row>
     <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I734" s="5"/>
+      <c r="I734" s="6"/>
     </row>
     <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I735" s="5"/>
+      <c r="I735" s="6"/>
     </row>
     <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I736" s="5"/>
+      <c r="I736" s="6"/>
     </row>
     <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I737" s="5"/>
+      <c r="I737" s="6"/>
     </row>
     <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I738" s="5"/>
+      <c r="I738" s="6"/>
     </row>
     <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I739" s="5"/>
+      <c r="I739" s="6"/>
     </row>
     <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I740" s="5"/>
+      <c r="I740" s="6"/>
     </row>
     <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I741" s="5"/>
+      <c r="I741" s="6"/>
     </row>
     <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I742" s="5"/>
+      <c r="I742" s="6"/>
     </row>
     <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I743" s="5"/>
+      <c r="I743" s="6"/>
     </row>
     <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I744" s="5"/>
+      <c r="I744" s="6"/>
     </row>
     <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I745" s="5"/>
+      <c r="I745" s="6"/>
     </row>
     <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I746" s="5"/>
+      <c r="I746" s="6"/>
     </row>
     <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I747" s="5"/>
+      <c r="I747" s="6"/>
     </row>
     <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I748" s="5"/>
+      <c r="I748" s="6"/>
     </row>
     <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I749" s="5"/>
+      <c r="I749" s="6"/>
     </row>
     <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I750" s="5"/>
+      <c r="I750" s="6"/>
     </row>
     <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I751" s="5"/>
+      <c r="I751" s="6"/>
     </row>
     <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I752" s="5"/>
+      <c r="I752" s="6"/>
     </row>
     <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I753" s="5"/>
+      <c r="I753" s="6"/>
     </row>
     <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I754" s="5"/>
+      <c r="I754" s="6"/>
     </row>
     <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I755" s="5"/>
+      <c r="I755" s="6"/>
     </row>
     <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I756" s="5"/>
+      <c r="I756" s="6"/>
     </row>
     <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I757" s="5"/>
+      <c r="I757" s="6"/>
     </row>
     <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I758" s="5"/>
+      <c r="I758" s="6"/>
     </row>
     <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I759" s="5"/>
+      <c r="I759" s="6"/>
     </row>
     <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I760" s="5"/>
+      <c r="I760" s="6"/>
     </row>
     <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I761" s="5"/>
+      <c r="I761" s="6"/>
     </row>
     <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I762" s="5"/>
+      <c r="I762" s="6"/>
     </row>
     <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I763" s="5"/>
+      <c r="I763" s="6"/>
     </row>
     <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I764" s="5"/>
+      <c r="I764" s="6"/>
     </row>
     <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I765" s="5"/>
+      <c r="I765" s="6"/>
     </row>
     <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I766" s="5"/>
+      <c r="I766" s="6"/>
     </row>
     <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I767" s="5"/>
+      <c r="I767" s="6"/>
     </row>
     <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I768" s="5"/>
+      <c r="I768" s="6"/>
     </row>
     <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I769" s="5"/>
+      <c r="I769" s="6"/>
     </row>
     <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I770" s="5"/>
+      <c r="I770" s="6"/>
     </row>
     <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I771" s="5"/>
+      <c r="I771" s="6"/>
     </row>
     <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I772" s="5"/>
+      <c r="I772" s="6"/>
     </row>
     <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I773" s="5"/>
+      <c r="I773" s="6"/>
     </row>
     <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I774" s="5"/>
+      <c r="I774" s="6"/>
     </row>
     <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I775" s="5"/>
+      <c r="I775" s="6"/>
     </row>
     <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I776" s="5"/>
+      <c r="I776" s="6"/>
     </row>
     <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I777" s="5"/>
+      <c r="I777" s="6"/>
     </row>
     <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I778" s="5"/>
+      <c r="I778" s="6"/>
     </row>
     <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I779" s="5"/>
+      <c r="I779" s="6"/>
     </row>
     <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I780" s="5"/>
+      <c r="I780" s="6"/>
     </row>
     <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I781" s="5"/>
+      <c r="I781" s="6"/>
     </row>
     <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I782" s="5"/>
+      <c r="I782" s="6"/>
     </row>
     <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I783" s="5"/>
+      <c r="I783" s="6"/>
     </row>
     <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I784" s="5"/>
+      <c r="I784" s="6"/>
     </row>
     <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I785" s="5"/>
+      <c r="I785" s="6"/>
     </row>
     <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I786" s="5"/>
+      <c r="I786" s="6"/>
     </row>
     <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I787" s="5"/>
+      <c r="I787" s="6"/>
     </row>
     <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I788" s="5"/>
+      <c r="I788" s="6"/>
     </row>
     <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I789" s="5"/>
+      <c r="I789" s="6"/>
     </row>
     <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I790" s="5"/>
+      <c r="I790" s="6"/>
     </row>
     <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I791" s="5"/>
+      <c r="I791" s="6"/>
     </row>
     <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I792" s="5"/>
+      <c r="I792" s="6"/>
     </row>
     <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I793" s="5"/>
+      <c r="I793" s="6"/>
     </row>
     <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I794" s="5"/>
+      <c r="I794" s="6"/>
     </row>
     <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I795" s="5"/>
+      <c r="I795" s="6"/>
     </row>
     <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I796" s="5"/>
+      <c r="I796" s="6"/>
     </row>
     <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I797" s="5"/>
+      <c r="I797" s="6"/>
     </row>
     <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I798" s="5"/>
+      <c r="I798" s="6"/>
     </row>
     <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I799" s="5"/>
+      <c r="I799" s="6"/>
     </row>
     <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I800" s="5"/>
+      <c r="I800" s="6"/>
     </row>
     <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I801" s="5"/>
+      <c r="I801" s="6"/>
     </row>
     <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I802" s="5"/>
+      <c r="I802" s="6"/>
     </row>
     <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I803" s="5"/>
+      <c r="I803" s="6"/>
     </row>
     <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I804" s="5"/>
+      <c r="I804" s="6"/>
     </row>
     <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I805" s="5"/>
+      <c r="I805" s="6"/>
     </row>
     <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I806" s="5"/>
+      <c r="I806" s="6"/>
     </row>
     <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I807" s="5"/>
+      <c r="I807" s="6"/>
     </row>
     <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I808" s="5"/>
+      <c r="I808" s="6"/>
     </row>
     <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I809" s="5"/>
+      <c r="I809" s="6"/>
     </row>
     <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I810" s="5"/>
+      <c r="I810" s="6"/>
     </row>
     <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I811" s="5"/>
+      <c r="I811" s="6"/>
     </row>
     <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I812" s="5"/>
+      <c r="I812" s="6"/>
     </row>
     <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I813" s="5"/>
+      <c r="I813" s="6"/>
     </row>
     <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I814" s="5"/>
+      <c r="I814" s="6"/>
     </row>
     <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I815" s="5"/>
+      <c r="I815" s="6"/>
     </row>
     <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I816" s="5"/>
+      <c r="I816" s="6"/>
     </row>
     <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I817" s="5"/>
+      <c r="I817" s="6"/>
     </row>
     <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I818" s="5"/>
+      <c r="I818" s="6"/>
     </row>
     <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I819" s="5"/>
+      <c r="I819" s="6"/>
     </row>
     <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I820" s="5"/>
+      <c r="I820" s="6"/>
     </row>
     <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I821" s="5"/>
+      <c r="I821" s="6"/>
     </row>
     <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I822" s="5"/>
+      <c r="I822" s="6"/>
     </row>
     <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I823" s="5"/>
+      <c r="I823" s="6"/>
     </row>
     <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I824" s="5"/>
+      <c r="I824" s="6"/>
     </row>
     <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I825" s="5"/>
+      <c r="I825" s="6"/>
     </row>
     <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I826" s="5"/>
+      <c r="I826" s="6"/>
     </row>
     <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I827" s="5"/>
+      <c r="I827" s="6"/>
     </row>
     <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I828" s="5"/>
+      <c r="I828" s="6"/>
     </row>
     <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I829" s="5"/>
+      <c r="I829" s="6"/>
     </row>
     <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I830" s="5"/>
+      <c r="I830" s="6"/>
     </row>
     <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I831" s="5"/>
+      <c r="I831" s="6"/>
     </row>
     <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I832" s="5"/>
+      <c r="I832" s="6"/>
     </row>
     <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I833" s="5"/>
+      <c r="I833" s="6"/>
     </row>
     <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I834" s="5"/>
+      <c r="I834" s="6"/>
     </row>
     <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I835" s="5"/>
+      <c r="I835" s="6"/>
     </row>
     <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I836" s="5"/>
+      <c r="I836" s="6"/>
     </row>
     <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I837" s="5"/>
+      <c r="I837" s="6"/>
     </row>
     <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I838" s="5"/>
+      <c r="I838" s="6"/>
     </row>
     <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I839" s="5"/>
+      <c r="I839" s="6"/>
     </row>
     <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I840" s="5"/>
+      <c r="I840" s="6"/>
     </row>
     <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I841" s="5"/>
+      <c r="I841" s="6"/>
     </row>
     <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I842" s="5"/>
+      <c r="I842" s="6"/>
     </row>
     <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I843" s="5"/>
+      <c r="I843" s="6"/>
     </row>
     <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I844" s="5"/>
+      <c r="I844" s="6"/>
     </row>
     <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I845" s="5"/>
+      <c r="I845" s="6"/>
     </row>
     <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I846" s="5"/>
+      <c r="I846" s="6"/>
     </row>
     <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I847" s="5"/>
+      <c r="I847" s="6"/>
     </row>
     <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I848" s="5"/>
+      <c r="I848" s="6"/>
     </row>
     <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I849" s="5"/>
+      <c r="I849" s="6"/>
     </row>
     <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I850" s="5"/>
+      <c r="I850" s="6"/>
     </row>
     <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I851" s="5"/>
+      <c r="I851" s="6"/>
     </row>
     <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I852" s="5"/>
+      <c r="I852" s="6"/>
     </row>
     <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I853" s="5"/>
+      <c r="I853" s="6"/>
     </row>
     <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I854" s="5"/>
+      <c r="I854" s="6"/>
     </row>
     <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I855" s="5"/>
+      <c r="I855" s="6"/>
     </row>
     <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I856" s="5"/>
+      <c r="I856" s="6"/>
     </row>
     <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I857" s="5"/>
+      <c r="I857" s="6"/>
     </row>
     <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I858" s="5"/>
+      <c r="I858" s="6"/>
     </row>
     <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I859" s="5"/>
+      <c r="I859" s="6"/>
     </row>
     <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I860" s="5"/>
+      <c r="I860" s="6"/>
     </row>
     <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I861" s="5"/>
+      <c r="I861" s="6"/>
     </row>
     <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I862" s="5"/>
+      <c r="I862" s="6"/>
     </row>
     <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I863" s="5"/>
+      <c r="I863" s="6"/>
     </row>
     <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I864" s="5"/>
+      <c r="I864" s="6"/>
     </row>
     <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I865" s="5"/>
+      <c r="I865" s="6"/>
     </row>
     <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I866" s="5"/>
+      <c r="I866" s="6"/>
     </row>
     <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I867" s="5"/>
+      <c r="I867" s="6"/>
     </row>
     <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I868" s="5"/>
+      <c r="I868" s="6"/>
     </row>
     <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I869" s="5"/>
+      <c r="I869" s="6"/>
     </row>
     <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I870" s="5"/>
+      <c r="I870" s="6"/>
     </row>
     <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I871" s="5"/>
+      <c r="I871" s="6"/>
     </row>
     <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I872" s="5"/>
+      <c r="I872" s="6"/>
     </row>
     <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I873" s="5"/>
+      <c r="I873" s="6"/>
     </row>
     <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I874" s="5"/>
+      <c r="I874" s="6"/>
     </row>
     <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I875" s="5"/>
+      <c r="I875" s="6"/>
     </row>
     <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I876" s="5"/>
+      <c r="I876" s="6"/>
     </row>
     <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I877" s="5"/>
+      <c r="I877" s="6"/>
     </row>
     <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I878" s="5"/>
+      <c r="I878" s="6"/>
     </row>
     <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I879" s="5"/>
+      <c r="I879" s="6"/>
     </row>
     <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I880" s="5"/>
+      <c r="I880" s="6"/>
     </row>
     <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I881" s="5"/>
+      <c r="I881" s="6"/>
     </row>
     <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I882" s="5"/>
+      <c r="I882" s="6"/>
     </row>
     <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I883" s="5"/>
+      <c r="I883" s="6"/>
     </row>
     <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I884" s="5"/>
+      <c r="I884" s="6"/>
     </row>
     <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I885" s="5"/>
+      <c r="I885" s="6"/>
     </row>
     <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I886" s="5"/>
+      <c r="I886" s="6"/>
     </row>
     <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I887" s="5"/>
+      <c r="I887" s="6"/>
     </row>
     <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I888" s="5"/>
+      <c r="I888" s="6"/>
     </row>
     <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I889" s="5"/>
+      <c r="I889" s="6"/>
     </row>
     <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I890" s="5"/>
+      <c r="I890" s="6"/>
     </row>
     <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I891" s="5"/>
+      <c r="I891" s="6"/>
     </row>
     <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I892" s="5"/>
+      <c r="I892" s="6"/>
     </row>
     <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I893" s="5"/>
+      <c r="I893" s="6"/>
     </row>
     <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I894" s="5"/>
+      <c r="I894" s="6"/>
     </row>
     <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I895" s="5"/>
+      <c r="I895" s="6"/>
     </row>
     <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I896" s="5"/>
+      <c r="I896" s="6"/>
     </row>
     <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I897" s="5"/>
+      <c r="I897" s="6"/>
     </row>
     <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I898" s="5"/>
+      <c r="I898" s="6"/>
     </row>
     <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I899" s="5"/>
+      <c r="I899" s="6"/>
     </row>
     <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I900" s="5"/>
+      <c r="I900" s="6"/>
     </row>
     <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I901" s="5"/>
+      <c r="I901" s="6"/>
     </row>
     <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I902" s="5"/>
+      <c r="I902" s="6"/>
     </row>
     <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I903" s="5"/>
+      <c r="I903" s="6"/>
     </row>
     <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I904" s="5"/>
+      <c r="I904" s="6"/>
     </row>
     <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I905" s="5"/>
+      <c r="I905" s="6"/>
     </row>
     <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I906" s="5"/>
+      <c r="I906" s="6"/>
     </row>
     <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I907" s="5"/>
+      <c r="I907" s="6"/>
     </row>
     <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I908" s="5"/>
+      <c r="I908" s="6"/>
     </row>
     <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I909" s="5"/>
+      <c r="I909" s="6"/>
     </row>
     <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I910" s="5"/>
+      <c r="I910" s="6"/>
     </row>
     <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I911" s="5"/>
+      <c r="I911" s="6"/>
     </row>
     <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I912" s="5"/>
+      <c r="I912" s="6"/>
     </row>
     <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I913" s="5"/>
+      <c r="I913" s="6"/>
     </row>
     <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I914" s="5"/>
+      <c r="I914" s="6"/>
     </row>
     <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I915" s="5"/>
+      <c r="I915" s="6"/>
     </row>
     <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I916" s="5"/>
+      <c r="I916" s="6"/>
     </row>
     <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I917" s="5"/>
+      <c r="I917" s="6"/>
     </row>
     <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I918" s="5"/>
+      <c r="I918" s="6"/>
     </row>
     <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I919" s="5"/>
+      <c r="I919" s="6"/>
     </row>
     <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I920" s="5"/>
+      <c r="I920" s="6"/>
     </row>
     <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I921" s="5"/>
+      <c r="I921" s="6"/>
     </row>
     <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I922" s="5"/>
+      <c r="I922" s="6"/>
     </row>
     <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I923" s="5"/>
+      <c r="I923" s="6"/>
     </row>
     <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I924" s="5"/>
+      <c r="I924" s="6"/>
     </row>
     <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I925" s="5"/>
+      <c r="I925" s="6"/>
     </row>
     <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I926" s="5"/>
+      <c r="I926" s="6"/>
     </row>
     <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I927" s="5"/>
+      <c r="I927" s="6"/>
     </row>
     <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I928" s="5"/>
+      <c r="I928" s="6"/>
     </row>
     <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I929" s="5"/>
+      <c r="I929" s="6"/>
     </row>
     <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I930" s="5"/>
+      <c r="I930" s="6"/>
     </row>
     <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I931" s="5"/>
+      <c r="I931" s="6"/>
     </row>
     <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I932" s="5"/>
+      <c r="I932" s="6"/>
     </row>
     <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I933" s="5"/>
+      <c r="I933" s="6"/>
     </row>
     <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I934" s="5"/>
+      <c r="I934" s="6"/>
     </row>
     <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I935" s="5"/>
+      <c r="I935" s="6"/>
     </row>
     <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I936" s="5"/>
+      <c r="I936" s="6"/>
     </row>
     <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I937" s="5"/>
+      <c r="I937" s="6"/>
     </row>
     <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I938" s="5"/>
+      <c r="I938" s="6"/>
     </row>
     <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I939" s="5"/>
+      <c r="I939" s="6"/>
     </row>
     <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I940" s="5"/>
+      <c r="I940" s="6"/>
     </row>
     <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I941" s="5"/>
+      <c r="I941" s="6"/>
     </row>
     <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I942" s="5"/>
+      <c r="I942" s="6"/>
     </row>
     <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I943" s="5"/>
+      <c r="I943" s="6"/>
     </row>
     <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I944" s="5"/>
+      <c r="I944" s="6"/>
     </row>
     <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I945" s="5"/>
+      <c r="I945" s="6"/>
     </row>
     <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I946" s="5"/>
+      <c r="I946" s="6"/>
     </row>
     <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I947" s="5"/>
+      <c r="I947" s="6"/>
     </row>
     <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I948" s="5"/>
+      <c r="I948" s="6"/>
     </row>
     <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I949" s="5"/>
+      <c r="I949" s="6"/>
     </row>
     <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I950" s="5"/>
+      <c r="I950" s="6"/>
     </row>
     <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I951" s="5"/>
+      <c r="I951" s="6"/>
     </row>
     <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I952" s="5"/>
+      <c r="I952" s="6"/>
     </row>
     <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I953" s="5"/>
+      <c r="I953" s="6"/>
     </row>
     <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I954" s="5"/>
+      <c r="I954" s="6"/>
     </row>
     <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I955" s="5"/>
+      <c r="I955" s="6"/>
     </row>
     <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I956" s="5"/>
+      <c r="I956" s="6"/>
     </row>
     <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I957" s="5"/>
+      <c r="I957" s="6"/>
     </row>
     <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I958" s="5"/>
+      <c r="I958" s="6"/>
     </row>
     <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I959" s="5"/>
+      <c r="I959" s="6"/>
     </row>
     <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I960" s="5"/>
+      <c r="I960" s="6"/>
     </row>
     <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I961" s="5"/>
+      <c r="I961" s="6"/>
     </row>
     <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I962" s="5"/>
+      <c r="I962" s="6"/>
     </row>
     <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I963" s="5"/>
+      <c r="I963" s="6"/>
     </row>
     <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I964" s="5"/>
+      <c r="I964" s="6"/>
     </row>
     <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I965" s="5"/>
+      <c r="I965" s="6"/>
     </row>
     <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I966" s="5"/>
+      <c r="I966" s="6"/>
     </row>
     <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I967" s="5"/>
+      <c r="I967" s="6"/>
     </row>
     <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I968" s="5"/>
+      <c r="I968" s="6"/>
     </row>
     <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I969" s="5"/>
+      <c r="I969" s="6"/>
     </row>
     <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I970" s="5"/>
+      <c r="I970" s="6"/>
     </row>
     <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I971" s="5"/>
+      <c r="I971" s="6"/>
     </row>
     <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I972" s="5"/>
+      <c r="I972" s="6"/>
     </row>
     <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I973" s="5"/>
+      <c r="I973" s="6"/>
     </row>
     <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I974" s="5"/>
+      <c r="I974" s="6"/>
     </row>
     <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I975" s="5"/>
+      <c r="I975" s="6"/>
     </row>
     <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I976" s="5"/>
+      <c r="I976" s="6"/>
     </row>
     <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I977" s="5"/>
+      <c r="I977" s="6"/>
     </row>
     <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I978" s="5"/>
+      <c r="I978" s="6"/>
     </row>
     <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I979" s="5"/>
+      <c r="I979" s="6"/>
     </row>
     <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I980" s="5"/>
+      <c r="I980" s="6"/>
     </row>
     <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I981" s="5"/>
+      <c r="I981" s="6"/>
     </row>
     <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I982" s="5"/>
+      <c r="I982" s="6"/>
     </row>
     <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I983" s="5"/>
+      <c r="I983" s="6"/>
     </row>
     <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I984" s="5"/>
+      <c r="I984" s="6"/>
     </row>
     <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I985" s="5"/>
+      <c r="I985" s="6"/>
     </row>
     <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I986" s="5"/>
+      <c r="I986" s="6"/>
     </row>
     <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I987" s="5"/>
+      <c r="I987" s="6"/>
     </row>
     <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I988" s="5"/>
+      <c r="I988" s="6"/>
     </row>
     <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I989" s="5"/>
+      <c r="I989" s="6"/>
     </row>
     <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I990" s="5"/>
+      <c r="I990" s="6"/>
     </row>
     <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I991" s="5"/>
+      <c r="I991" s="6"/>
     </row>
     <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I992" s="5"/>
+      <c r="I992" s="6"/>
     </row>
     <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I993" s="5"/>
+      <c r="I993" s="6"/>
     </row>
     <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I994" s="5"/>
+      <c r="I994" s="6"/>
     </row>
     <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I995" s="5"/>
+      <c r="I995" s="6"/>
     </row>
     <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I996" s="5"/>
+      <c r="I996" s="6"/>
     </row>
     <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I997" s="5"/>
+      <c r="I997" s="6"/>
     </row>
     <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I998" s="5"/>
+      <c r="I998" s="6"/>
     </row>
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I999" s="5"/>
+      <c r="I999" s="6"/>
     </row>
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I1000" s="5"/>
+      <c r="I1000" s="6"/>
     </row>
     <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I1001" s="5"/>
+      <c r="I1001" s="6"/>
     </row>
     <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I1002" s="5"/>
+      <c r="I1002" s="6"/>
     </row>
     <row r="1003" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I1003" s="5"/>
+      <c r="I1003" s="6"/>
     </row>
     <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -4301,8 +4307,8 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
